--- a/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9799578110756633</v>
+        <v>0.9799578110756625</v>
       </c>
       <c r="D2">
-        <v>1.001735154111545</v>
+        <v>1.001735154111544</v>
       </c>
       <c r="E2">
-        <v>0.9883998108271614</v>
+        <v>0.9883998108271604</v>
       </c>
       <c r="F2">
-        <v>0.9598536748042976</v>
+        <v>0.9598536748042972</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.03516384385244</v>
       </c>
       <c r="J2">
-        <v>1.002754964096471</v>
+        <v>1.00275496409647</v>
       </c>
       <c r="K2">
-        <v>1.013170368297181</v>
+        <v>1.01317036829718</v>
       </c>
       <c r="L2">
-        <v>1.00002315586826</v>
+        <v>1.000023155868259</v>
       </c>
       <c r="M2">
-        <v>0.9719021700121731</v>
+        <v>0.9719021700121725</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9878659388463917</v>
+        <v>0.9878659388463913</v>
       </c>
       <c r="D3">
-        <v>1.007686293707189</v>
+        <v>1.007686293707188</v>
       </c>
       <c r="E3">
-        <v>0.9950104794804528</v>
+        <v>0.9950104794804523</v>
       </c>
       <c r="F3">
-        <v>0.9733134524465024</v>
+        <v>0.973313452446502</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038249238402098</v>
+        <v>1.038249238402097</v>
       </c>
       <c r="J3">
-        <v>1.008692946609477</v>
+        <v>1.008692946609476</v>
       </c>
       <c r="K3">
-        <v>1.018221762624031</v>
+        <v>1.01822176262403</v>
       </c>
       <c r="L3">
         <v>1.005707602770472</v>
       </c>
       <c r="M3">
-        <v>0.9842995774067772</v>
+        <v>0.9842995774067769</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9928041477126182</v>
+        <v>0.9928041477126194</v>
       </c>
       <c r="D4">
-        <v>1.011401156467345</v>
+        <v>1.011401156467346</v>
       </c>
       <c r="E4">
-        <v>0.9991440520622245</v>
+        <v>0.9991440520622257</v>
       </c>
       <c r="F4">
-        <v>0.9815884630961845</v>
+        <v>0.9815884630961856</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040149484649927</v>
+        <v>1.040149484649928</v>
       </c>
       <c r="J4">
-        <v>1.012393732610226</v>
+        <v>1.012393732610227</v>
       </c>
       <c r="K4">
-        <v>1.02136389980352</v>
+        <v>1.021363899803521</v>
       </c>
       <c r="L4">
-        <v>1.009252818610927</v>
+        <v>1.009252818610928</v>
       </c>
       <c r="M4">
-        <v>0.9919142985154905</v>
+        <v>0.9919142985154915</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9948402555545861</v>
+        <v>0.994840255554586</v>
       </c>
       <c r="D5">
         <v>1.012932502267134</v>
@@ -544,7 +544,7 @@
         <v>1.00084962903439</v>
       </c>
       <c r="F5">
-        <v>0.9849731840637554</v>
+        <v>0.9849731840637556</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.022656558974794</v>
       </c>
       <c r="L5">
-        <v>1.010713467518306</v>
+        <v>1.010713467518307</v>
       </c>
       <c r="M5">
-        <v>0.9950271683431741</v>
+        <v>0.995027168343174</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9951798648204575</v>
+        <v>0.9951798648204578</v>
       </c>
       <c r="D6">
         <v>1.013187898354885</v>
       </c>
       <c r="E6">
-        <v>1.001134177811091</v>
+        <v>1.001134177811092</v>
       </c>
       <c r="F6">
-        <v>0.9855362351984381</v>
+        <v>0.9855362351984376</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1.01095702782936</v>
       </c>
       <c r="M6">
-        <v>0.9955448909005843</v>
+        <v>0.995544890900584</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,22 +611,22 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9928315075252887</v>
+        <v>0.9928315075252884</v>
       </c>
       <c r="D7">
-        <v>1.011421735103328</v>
+        <v>1.011421735103327</v>
       </c>
       <c r="E7">
-        <v>0.9991669656641493</v>
+        <v>0.9991669656641488</v>
       </c>
       <c r="F7">
-        <v>0.9816340476926584</v>
+        <v>0.9816340476926579</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040159954448581</v>
+        <v>1.04015995444858</v>
       </c>
       <c r="J7">
         <v>1.012414220198517</v>
@@ -638,7 +638,7 @@
         <v>1.009272450235922</v>
       </c>
       <c r="M7">
-        <v>0.9919562290049471</v>
+        <v>0.9919562290049467</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9826692999864978</v>
+        <v>0.9826692999864968</v>
       </c>
       <c r="D8">
-        <v>1.003775897539256</v>
+        <v>1.003775897539255</v>
       </c>
       <c r="E8">
-        <v>0.990665193783055</v>
+        <v>0.9906651937830544</v>
       </c>
       <c r="F8">
-        <v>0.9644988889689312</v>
+        <v>0.9644988889689299</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036227481360675</v>
+        <v>1.036227481360674</v>
       </c>
       <c r="J8">
-        <v>1.004792458264912</v>
+        <v>1.004792458264911</v>
       </c>
       <c r="K8">
-        <v>1.014904963669658</v>
+        <v>1.014904963669657</v>
       </c>
       <c r="L8">
         <v>1.001973113485569</v>
       </c>
       <c r="M8">
-        <v>0.9761822317613962</v>
+        <v>0.976182231761395</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9632401014613068</v>
+        <v>0.9632401014613059</v>
       </c>
       <c r="D9">
-        <v>0.9891484173651273</v>
+        <v>0.9891484173651265</v>
       </c>
       <c r="E9">
-        <v>0.9744615554267511</v>
+        <v>0.9744615554267501</v>
       </c>
       <c r="F9">
-        <v>0.9304266682354342</v>
+        <v>0.9304266682354334</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028478583678721</v>
+        <v>1.02847858367872</v>
       </c>
       <c r="J9">
-        <v>0.9901612372220386</v>
+        <v>0.9901612372220379</v>
       </c>
       <c r="K9">
-        <v>1.002420042202156</v>
+        <v>1.002420042202155</v>
       </c>
       <c r="L9">
-        <v>0.9879830270836637</v>
+        <v>0.9879830270836627</v>
       </c>
       <c r="M9">
-        <v>0.9447592876884063</v>
+        <v>0.9447592876884052</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9490067906493741</v>
+        <v>0.9490067906493738</v>
       </c>
       <c r="D10">
-        <v>0.9784267385867087</v>
+        <v>0.9784267385867083</v>
       </c>
       <c r="E10">
-        <v>0.9626345560368154</v>
+        <v>0.9626345560368149</v>
       </c>
       <c r="F10">
-        <v>0.9040908856790567</v>
+        <v>0.9040908856790565</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022616928654337</v>
+        <v>1.022616928654336</v>
       </c>
       <c r="J10">
-        <v>0.9794005954175878</v>
+        <v>0.9794005954175874</v>
       </c>
       <c r="K10">
-        <v>0.9931967444459893</v>
+        <v>0.9931967444459888</v>
       </c>
       <c r="L10">
-        <v>0.9777128988854455</v>
+        <v>0.9777128988854452</v>
       </c>
       <c r="M10">
-        <v>0.9204383842877969</v>
+        <v>0.9204383842877965</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9424643142303212</v>
+        <v>0.9424643142303226</v>
       </c>
       <c r="D11">
-        <v>0.9734962354809141</v>
+        <v>0.9734962354809154</v>
       </c>
       <c r="E11">
-        <v>0.9572106220287631</v>
+        <v>0.9572106220287645</v>
       </c>
       <c r="F11">
-        <v>0.8914933926814742</v>
+        <v>0.8914933926814759</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019868792122477</v>
+        <v>1.019868792122478</v>
       </c>
       <c r="J11">
-        <v>0.9744432588500165</v>
+        <v>0.9744432588500177</v>
       </c>
       <c r="K11">
-        <v>0.9889359016029767</v>
+        <v>0.9889359016029778</v>
       </c>
       <c r="L11">
-        <v>0.9729872607121245</v>
+        <v>0.9729872607121259</v>
       </c>
       <c r="M11">
-        <v>0.9087993349024585</v>
+        <v>0.9087993349024598</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9399687569727768</v>
+        <v>0.939968756972778</v>
       </c>
       <c r="D12">
-        <v>0.97161504287239</v>
+        <v>0.971615042872391</v>
       </c>
       <c r="E12">
-        <v>0.9551437928146552</v>
+        <v>0.9551437928146562</v>
       </c>
       <c r="F12">
-        <v>0.8865934683254166</v>
+        <v>0.8865934683254176</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.01881120324067</v>
       </c>
       <c r="J12">
-        <v>0.9725504899224436</v>
+        <v>0.9725504899224449</v>
       </c>
       <c r="K12">
-        <v>0.9873070357098686</v>
+        <v>0.9873070357098694</v>
       </c>
       <c r="L12">
-        <v>0.9711839593034982</v>
+        <v>0.9711839593034992</v>
       </c>
       <c r="M12">
-        <v>0.9042717178242164</v>
+        <v>0.9042717178242177</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,13 +839,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9405071801839838</v>
+        <v>0.9405071801839833</v>
       </c>
       <c r="D13">
-        <v>0.9720209424079128</v>
+        <v>0.9720209424079124</v>
       </c>
       <c r="E13">
-        <v>0.9555896200518631</v>
+        <v>0.9555896200518624</v>
       </c>
       <c r="F13">
         <v>0.8876553316226048</v>
@@ -857,13 +857,13 @@
         <v>1.019039827776156</v>
       </c>
       <c r="J13">
-        <v>0.9729589471561124</v>
+        <v>0.9729589471561118</v>
       </c>
       <c r="K13">
-        <v>0.9876586397284749</v>
+        <v>0.9876586397284746</v>
       </c>
       <c r="L13">
-        <v>0.9715730616031107</v>
+        <v>0.97157306160311</v>
       </c>
       <c r="M13">
         <v>0.9052529140291922</v>
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9422594209322296</v>
+        <v>0.9422594209322298</v>
       </c>
       <c r="D14">
-        <v>0.9733417952355646</v>
+        <v>0.9733417952355643</v>
       </c>
       <c r="E14">
-        <v>0.9570408855863142</v>
+        <v>0.9570408855863144</v>
       </c>
       <c r="F14">
-        <v>0.8910931569653474</v>
+        <v>0.891093156965348</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -898,13 +898,13 @@
         <v>0.9742878951523496</v>
       </c>
       <c r="K14">
-        <v>0.988802242659911</v>
+        <v>0.9888022426599108</v>
       </c>
       <c r="L14">
-        <v>0.9728392195120812</v>
+        <v>0.9728392195120814</v>
       </c>
       <c r="M14">
-        <v>0.9084295176131323</v>
+        <v>0.9084295176131326</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.943330081820087</v>
+        <v>0.9433300818200855</v>
       </c>
       <c r="D15">
-        <v>0.9741487940573004</v>
+        <v>0.9741487940572989</v>
       </c>
       <c r="E15">
-        <v>0.9579279210297713</v>
+        <v>0.9579279210297695</v>
       </c>
       <c r="F15">
-        <v>0.8931805898716227</v>
+        <v>0.8931805898716207</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020234470905001</v>
+        <v>1.020234470905</v>
       </c>
       <c r="J15">
-        <v>0.975099665197301</v>
+        <v>0.9750996651972992</v>
       </c>
       <c r="K15">
-        <v>0.9895005222214195</v>
+        <v>0.9895005222214182</v>
       </c>
       <c r="L15">
-        <v>0.9736127712997075</v>
+        <v>0.9736127712997058</v>
       </c>
       <c r="M15">
-        <v>0.9103582854449861</v>
+        <v>0.910358285444984</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9494323303542137</v>
+        <v>0.9494323303542161</v>
       </c>
       <c r="D16">
-        <v>0.9787473745670778</v>
+        <v>0.9787473745670799</v>
       </c>
       <c r="E16">
-        <v>0.9629876152328012</v>
+        <v>0.9629876152328037</v>
       </c>
       <c r="F16">
-        <v>0.9048985770752566</v>
+        <v>0.9048985770752576</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022794474827332</v>
+        <v>1.022794474827333</v>
       </c>
       <c r="J16">
-        <v>0.9797227926387105</v>
+        <v>0.9797227926387131</v>
       </c>
       <c r="K16">
-        <v>0.9934734130861228</v>
+        <v>0.9934734130861246</v>
       </c>
       <c r="L16">
-        <v>0.9780201655245181</v>
+        <v>0.9780201655245203</v>
       </c>
       <c r="M16">
-        <v>0.921184540198255</v>
+        <v>0.9211845401982559</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9531532323589642</v>
+        <v>0.9531532323589633</v>
       </c>
       <c r="D17">
-        <v>0.9815507520150364</v>
+        <v>0.9815507520150358</v>
       </c>
       <c r="E17">
-        <v>0.9660761664017118</v>
+        <v>0.966076166401711</v>
       </c>
       <c r="F17">
-        <v>0.9119043163732836</v>
+        <v>0.9119043163732835</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.024340820069395</v>
       </c>
       <c r="J17">
-        <v>0.9825388199859107</v>
+        <v>0.98253881998591</v>
       </c>
       <c r="K17">
-        <v>0.9958901855602827</v>
+        <v>0.9958901855602822</v>
       </c>
       <c r="L17">
-        <v>0.9807063500245344</v>
+        <v>0.9807063500245338</v>
       </c>
       <c r="M17">
-        <v>0.9276559736131821</v>
+        <v>0.927655973613182</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9552876278258621</v>
+        <v>0.9552876278258624</v>
       </c>
       <c r="D18">
-        <v>0.9831586475510266</v>
+        <v>0.9831586475510272</v>
       </c>
       <c r="E18">
-        <v>0.9678489762818077</v>
+        <v>0.9678489762818082</v>
       </c>
       <c r="F18">
-        <v>0.9158788306843495</v>
+        <v>0.9158788306843509</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025222936866226</v>
+        <v>1.025222936866227</v>
       </c>
       <c r="J18">
-        <v>0.9841531404558167</v>
+        <v>0.9841531404558171</v>
       </c>
       <c r="K18">
-        <v>0.9972745579583747</v>
+        <v>0.9972745579583754</v>
       </c>
       <c r="L18">
-        <v>0.9822467574186434</v>
+        <v>0.9822467574186438</v>
       </c>
       <c r="M18">
-        <v>0.9313268543494692</v>
+        <v>0.9313268543494703</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,22 +1067,22 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9560095276064905</v>
+        <v>0.9560095276064906</v>
       </c>
       <c r="D19">
-        <v>0.9837024450163372</v>
+        <v>0.9837024450163371</v>
       </c>
       <c r="E19">
-        <v>0.9684487685216608</v>
+        <v>0.9684487685216607</v>
       </c>
       <c r="F19">
-        <v>0.9172161080624859</v>
+        <v>0.9172161080624863</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025520486356662</v>
+        <v>1.025520486356661</v>
       </c>
       <c r="J19">
         <v>0.9846989703989512</v>
@@ -1091,10 +1091,10 @@
         <v>0.9977424628858513</v>
       </c>
       <c r="L19">
-        <v>0.9827676809047242</v>
+        <v>0.9827676809047241</v>
       </c>
       <c r="M19">
-        <v>0.9325618763734667</v>
+        <v>0.9325618763734671</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9527577867731194</v>
+        <v>0.9527577867731195</v>
       </c>
       <c r="D20">
         <v>0.981252838283973</v>
       </c>
       <c r="E20">
-        <v>0.9657478044473536</v>
+        <v>0.9657478044473539</v>
       </c>
       <c r="F20">
-        <v>0.9111644864636688</v>
+        <v>0.9111644864636687</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>1.024176997154588</v>
       </c>
       <c r="J20">
-        <v>0.9822396484975102</v>
+        <v>0.9822396484975103</v>
       </c>
       <c r="K20">
         <v>0.9956335434227085</v>
@@ -1132,7 +1132,7 @@
         <v>0.9804209177935529</v>
       </c>
       <c r="M20">
-        <v>0.9269726196743796</v>
+        <v>0.9269726196743794</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9417453130824603</v>
+        <v>0.9417453130824595</v>
       </c>
       <c r="D21">
-        <v>0.9729542726626557</v>
+        <v>0.9729542726626551</v>
       </c>
       <c r="E21">
-        <v>0.9566150254838613</v>
+        <v>0.9566150254838608</v>
       </c>
       <c r="F21">
-        <v>0.8900873006568035</v>
+        <v>0.8900873006568027</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019564627228426</v>
+        <v>1.019564627228425</v>
       </c>
       <c r="J21">
-        <v>0.9738980340413833</v>
+        <v>0.9738980340413826</v>
       </c>
       <c r="K21">
-        <v>0.9884668126707943</v>
+        <v>0.9884668126707937</v>
       </c>
       <c r="L21">
-        <v>0.9724677497182831</v>
+        <v>0.9724677497182825</v>
       </c>
       <c r="M21">
-        <v>0.9075001011367284</v>
+        <v>0.9075001011367279</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9344370685781013</v>
+        <v>0.9344370685781032</v>
       </c>
       <c r="D22">
-        <v>0.9674438868569318</v>
+        <v>0.9674438868569333</v>
       </c>
       <c r="E22">
-        <v>0.9505665000492883</v>
+        <v>0.95056650004929</v>
       </c>
       <c r="F22">
-        <v>0.8755255554058972</v>
+        <v>0.8755255554058985</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.016447715488435</v>
       </c>
       <c r="J22">
-        <v>0.9683512250210798</v>
+        <v>0.9683512250210815</v>
       </c>
       <c r="K22">
-        <v>0.983689102480793</v>
+        <v>0.9836891024807943</v>
       </c>
       <c r="L22">
-        <v>0.9671852467049352</v>
+        <v>0.9671852467049369</v>
       </c>
       <c r="M22">
-        <v>0.8940443264610609</v>
+        <v>0.8940443264610625</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9383511528912487</v>
+        <v>0.9383511528912498</v>
       </c>
       <c r="D23">
-        <v>0.9703954878589335</v>
+        <v>0.9703954878589346</v>
       </c>
       <c r="E23">
-        <v>0.953804698061463</v>
+        <v>0.9538046980614636</v>
       </c>
       <c r="F23">
-        <v>0.8833872855078648</v>
+        <v>0.8833872855078668</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018122839781727</v>
       </c>
       <c r="J23">
-        <v>0.9713230562167261</v>
+        <v>0.9713230562167272</v>
       </c>
       <c r="K23">
-        <v>0.9862501244302386</v>
+        <v>0.9862501244302397</v>
       </c>
       <c r="L23">
-        <v>0.970014848854037</v>
+        <v>0.970014848854038</v>
       </c>
       <c r="M23">
-        <v>0.9013090603664233</v>
+        <v>0.9013090603664253</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1260,13 +1260,13 @@
         <v>0.9529365820780857</v>
       </c>
       <c r="D24">
-        <v>0.9813875364665178</v>
+        <v>0.9813875364665182</v>
       </c>
       <c r="E24">
-        <v>0.9658962652573791</v>
+        <v>0.9658962652573799</v>
       </c>
       <c r="F24">
-        <v>0.9114991263541514</v>
+        <v>0.9114991263541515</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>1.024251082611811</v>
       </c>
       <c r="J24">
-        <v>0.982374917944294</v>
+        <v>0.9823749179442942</v>
       </c>
       <c r="K24">
-        <v>0.995749586672069</v>
+        <v>0.9957495866720694</v>
       </c>
       <c r="L24">
-        <v>0.9805499734669941</v>
+        <v>0.9805499734669945</v>
       </c>
       <c r="M24">
         <v>0.9272817159665399</v>
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9684670741803572</v>
+        <v>0.9684670741803562</v>
       </c>
       <c r="D25">
-        <v>0.993084538092341</v>
+        <v>0.9930845380923403</v>
       </c>
       <c r="E25">
-        <v>0.978814104476407</v>
+        <v>0.978814104476406</v>
       </c>
       <c r="F25">
-        <v>0.9397836733310011</v>
+        <v>0.9397836733310001</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030592014198642</v>
       </c>
       <c r="J25">
-        <v>0.9941043282162895</v>
+        <v>0.9941043282162884</v>
       </c>
       <c r="K25">
         <v>1.005791164761417</v>
       </c>
       <c r="L25">
-        <v>0.9917504555369655</v>
+        <v>0.9917504555369646</v>
       </c>
       <c r="M25">
-        <v>0.9533947060637892</v>
+        <v>0.9533947060637881</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9799578110756625</v>
+        <v>0.9799578110756633</v>
       </c>
       <c r="D2">
-        <v>1.001735154111544</v>
+        <v>1.001735154111545</v>
       </c>
       <c r="E2">
-        <v>0.9883998108271604</v>
+        <v>0.9883998108271614</v>
       </c>
       <c r="F2">
-        <v>0.9598536748042972</v>
+        <v>0.9598536748042976</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.03516384385244</v>
       </c>
       <c r="J2">
-        <v>1.00275496409647</v>
+        <v>1.002754964096471</v>
       </c>
       <c r="K2">
-        <v>1.01317036829718</v>
+        <v>1.013170368297181</v>
       </c>
       <c r="L2">
-        <v>1.000023155868259</v>
+        <v>1.00002315586826</v>
       </c>
       <c r="M2">
-        <v>0.9719021700121725</v>
+        <v>0.9719021700121731</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9878659388463913</v>
+        <v>0.9878659388463917</v>
       </c>
       <c r="D3">
-        <v>1.007686293707188</v>
+        <v>1.007686293707189</v>
       </c>
       <c r="E3">
-        <v>0.9950104794804523</v>
+        <v>0.9950104794804528</v>
       </c>
       <c r="F3">
-        <v>0.973313452446502</v>
+        <v>0.9733134524465024</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038249238402097</v>
+        <v>1.038249238402098</v>
       </c>
       <c r="J3">
-        <v>1.008692946609476</v>
+        <v>1.008692946609477</v>
       </c>
       <c r="K3">
-        <v>1.01822176262403</v>
+        <v>1.018221762624031</v>
       </c>
       <c r="L3">
         <v>1.005707602770472</v>
       </c>
       <c r="M3">
-        <v>0.9842995774067769</v>
+        <v>0.9842995774067772</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9928041477126194</v>
+        <v>0.9928041477126182</v>
       </c>
       <c r="D4">
-        <v>1.011401156467346</v>
+        <v>1.011401156467345</v>
       </c>
       <c r="E4">
-        <v>0.9991440520622257</v>
+        <v>0.9991440520622245</v>
       </c>
       <c r="F4">
-        <v>0.9815884630961856</v>
+        <v>0.9815884630961845</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040149484649928</v>
+        <v>1.040149484649927</v>
       </c>
       <c r="J4">
-        <v>1.012393732610227</v>
+        <v>1.012393732610226</v>
       </c>
       <c r="K4">
-        <v>1.021363899803521</v>
+        <v>1.02136389980352</v>
       </c>
       <c r="L4">
-        <v>1.009252818610928</v>
+        <v>1.009252818610927</v>
       </c>
       <c r="M4">
-        <v>0.9919142985154915</v>
+        <v>0.9919142985154905</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.994840255554586</v>
+        <v>0.9948402555545861</v>
       </c>
       <c r="D5">
         <v>1.012932502267134</v>
@@ -544,7 +544,7 @@
         <v>1.00084962903439</v>
       </c>
       <c r="F5">
-        <v>0.9849731840637556</v>
+        <v>0.9849731840637554</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.022656558974794</v>
       </c>
       <c r="L5">
-        <v>1.010713467518307</v>
+        <v>1.010713467518306</v>
       </c>
       <c r="M5">
-        <v>0.995027168343174</v>
+        <v>0.9950271683431741</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9951798648204578</v>
+        <v>0.9951798648204575</v>
       </c>
       <c r="D6">
         <v>1.013187898354885</v>
       </c>
       <c r="E6">
-        <v>1.001134177811092</v>
+        <v>1.001134177811091</v>
       </c>
       <c r="F6">
-        <v>0.9855362351984376</v>
+        <v>0.9855362351984381</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1.01095702782936</v>
       </c>
       <c r="M6">
-        <v>0.995544890900584</v>
+        <v>0.9955448909005843</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,22 +611,22 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9928315075252884</v>
+        <v>0.9928315075252887</v>
       </c>
       <c r="D7">
-        <v>1.011421735103327</v>
+        <v>1.011421735103328</v>
       </c>
       <c r="E7">
-        <v>0.9991669656641488</v>
+        <v>0.9991669656641493</v>
       </c>
       <c r="F7">
-        <v>0.9816340476926579</v>
+        <v>0.9816340476926584</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04015995444858</v>
+        <v>1.040159954448581</v>
       </c>
       <c r="J7">
         <v>1.012414220198517</v>
@@ -638,7 +638,7 @@
         <v>1.009272450235922</v>
       </c>
       <c r="M7">
-        <v>0.9919562290049467</v>
+        <v>0.9919562290049471</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9826692999864968</v>
+        <v>0.9826692999864978</v>
       </c>
       <c r="D8">
-        <v>1.003775897539255</v>
+        <v>1.003775897539256</v>
       </c>
       <c r="E8">
-        <v>0.9906651937830544</v>
+        <v>0.990665193783055</v>
       </c>
       <c r="F8">
-        <v>0.9644988889689299</v>
+        <v>0.9644988889689312</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036227481360674</v>
+        <v>1.036227481360675</v>
       </c>
       <c r="J8">
-        <v>1.004792458264911</v>
+        <v>1.004792458264912</v>
       </c>
       <c r="K8">
-        <v>1.014904963669657</v>
+        <v>1.014904963669658</v>
       </c>
       <c r="L8">
         <v>1.001973113485569</v>
       </c>
       <c r="M8">
-        <v>0.976182231761395</v>
+        <v>0.9761822317613962</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9632401014613059</v>
+        <v>0.9632401014613068</v>
       </c>
       <c r="D9">
-        <v>0.9891484173651265</v>
+        <v>0.9891484173651273</v>
       </c>
       <c r="E9">
-        <v>0.9744615554267501</v>
+        <v>0.9744615554267511</v>
       </c>
       <c r="F9">
-        <v>0.9304266682354334</v>
+        <v>0.9304266682354342</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02847858367872</v>
+        <v>1.028478583678721</v>
       </c>
       <c r="J9">
-        <v>0.9901612372220379</v>
+        <v>0.9901612372220386</v>
       </c>
       <c r="K9">
-        <v>1.002420042202155</v>
+        <v>1.002420042202156</v>
       </c>
       <c r="L9">
-        <v>0.9879830270836627</v>
+        <v>0.9879830270836637</v>
       </c>
       <c r="M9">
-        <v>0.9447592876884052</v>
+        <v>0.9447592876884063</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9490067906493738</v>
+        <v>0.9490067906493741</v>
       </c>
       <c r="D10">
-        <v>0.9784267385867083</v>
+        <v>0.9784267385867087</v>
       </c>
       <c r="E10">
-        <v>0.9626345560368149</v>
+        <v>0.9626345560368154</v>
       </c>
       <c r="F10">
-        <v>0.9040908856790565</v>
+        <v>0.9040908856790567</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022616928654336</v>
+        <v>1.022616928654337</v>
       </c>
       <c r="J10">
-        <v>0.9794005954175874</v>
+        <v>0.9794005954175878</v>
       </c>
       <c r="K10">
-        <v>0.9931967444459888</v>
+        <v>0.9931967444459893</v>
       </c>
       <c r="L10">
-        <v>0.9777128988854452</v>
+        <v>0.9777128988854455</v>
       </c>
       <c r="M10">
-        <v>0.9204383842877965</v>
+        <v>0.9204383842877969</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9424643142303226</v>
+        <v>0.9424643142303212</v>
       </c>
       <c r="D11">
-        <v>0.9734962354809154</v>
+        <v>0.9734962354809141</v>
       </c>
       <c r="E11">
-        <v>0.9572106220287645</v>
+        <v>0.9572106220287631</v>
       </c>
       <c r="F11">
-        <v>0.8914933926814759</v>
+        <v>0.8914933926814742</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019868792122478</v>
+        <v>1.019868792122477</v>
       </c>
       <c r="J11">
-        <v>0.9744432588500177</v>
+        <v>0.9744432588500165</v>
       </c>
       <c r="K11">
-        <v>0.9889359016029778</v>
+        <v>0.9889359016029767</v>
       </c>
       <c r="L11">
-        <v>0.9729872607121259</v>
+        <v>0.9729872607121245</v>
       </c>
       <c r="M11">
-        <v>0.9087993349024598</v>
+        <v>0.9087993349024585</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.939968756972778</v>
+        <v>0.9399687569727768</v>
       </c>
       <c r="D12">
-        <v>0.971615042872391</v>
+        <v>0.97161504287239</v>
       </c>
       <c r="E12">
-        <v>0.9551437928146562</v>
+        <v>0.9551437928146552</v>
       </c>
       <c r="F12">
-        <v>0.8865934683254176</v>
+        <v>0.8865934683254166</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.01881120324067</v>
       </c>
       <c r="J12">
-        <v>0.9725504899224449</v>
+        <v>0.9725504899224436</v>
       </c>
       <c r="K12">
-        <v>0.9873070357098694</v>
+        <v>0.9873070357098686</v>
       </c>
       <c r="L12">
-        <v>0.9711839593034992</v>
+        <v>0.9711839593034982</v>
       </c>
       <c r="M12">
-        <v>0.9042717178242177</v>
+        <v>0.9042717178242164</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,13 +839,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9405071801839833</v>
+        <v>0.9405071801839838</v>
       </c>
       <c r="D13">
-        <v>0.9720209424079124</v>
+        <v>0.9720209424079128</v>
       </c>
       <c r="E13">
-        <v>0.9555896200518624</v>
+        <v>0.9555896200518631</v>
       </c>
       <c r="F13">
         <v>0.8876553316226048</v>
@@ -857,13 +857,13 @@
         <v>1.019039827776156</v>
       </c>
       <c r="J13">
-        <v>0.9729589471561118</v>
+        <v>0.9729589471561124</v>
       </c>
       <c r="K13">
-        <v>0.9876586397284746</v>
+        <v>0.9876586397284749</v>
       </c>
       <c r="L13">
-        <v>0.97157306160311</v>
+        <v>0.9715730616031107</v>
       </c>
       <c r="M13">
         <v>0.9052529140291922</v>
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9422594209322298</v>
+        <v>0.9422594209322296</v>
       </c>
       <c r="D14">
-        <v>0.9733417952355643</v>
+        <v>0.9733417952355646</v>
       </c>
       <c r="E14">
-        <v>0.9570408855863144</v>
+        <v>0.9570408855863142</v>
       </c>
       <c r="F14">
-        <v>0.891093156965348</v>
+        <v>0.8910931569653474</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -898,13 +898,13 @@
         <v>0.9742878951523496</v>
       </c>
       <c r="K14">
-        <v>0.9888022426599108</v>
+        <v>0.988802242659911</v>
       </c>
       <c r="L14">
-        <v>0.9728392195120814</v>
+        <v>0.9728392195120812</v>
       </c>
       <c r="M14">
-        <v>0.9084295176131326</v>
+        <v>0.9084295176131323</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9433300818200855</v>
+        <v>0.943330081820087</v>
       </c>
       <c r="D15">
-        <v>0.9741487940572989</v>
+        <v>0.9741487940573004</v>
       </c>
       <c r="E15">
-        <v>0.9579279210297695</v>
+        <v>0.9579279210297713</v>
       </c>
       <c r="F15">
-        <v>0.8931805898716207</v>
+        <v>0.8931805898716227</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020234470905</v>
+        <v>1.020234470905001</v>
       </c>
       <c r="J15">
-        <v>0.9750996651972992</v>
+        <v>0.975099665197301</v>
       </c>
       <c r="K15">
-        <v>0.9895005222214182</v>
+        <v>0.9895005222214195</v>
       </c>
       <c r="L15">
-        <v>0.9736127712997058</v>
+        <v>0.9736127712997075</v>
       </c>
       <c r="M15">
-        <v>0.910358285444984</v>
+        <v>0.9103582854449861</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9494323303542161</v>
+        <v>0.9494323303542137</v>
       </c>
       <c r="D16">
-        <v>0.9787473745670799</v>
+        <v>0.9787473745670778</v>
       </c>
       <c r="E16">
-        <v>0.9629876152328037</v>
+        <v>0.9629876152328012</v>
       </c>
       <c r="F16">
-        <v>0.9048985770752576</v>
+        <v>0.9048985770752566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022794474827333</v>
+        <v>1.022794474827332</v>
       </c>
       <c r="J16">
-        <v>0.9797227926387131</v>
+        <v>0.9797227926387105</v>
       </c>
       <c r="K16">
-        <v>0.9934734130861246</v>
+        <v>0.9934734130861228</v>
       </c>
       <c r="L16">
-        <v>0.9780201655245203</v>
+        <v>0.9780201655245181</v>
       </c>
       <c r="M16">
-        <v>0.9211845401982559</v>
+        <v>0.921184540198255</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9531532323589633</v>
+        <v>0.9531532323589642</v>
       </c>
       <c r="D17">
-        <v>0.9815507520150358</v>
+        <v>0.9815507520150364</v>
       </c>
       <c r="E17">
-        <v>0.966076166401711</v>
+        <v>0.9660761664017118</v>
       </c>
       <c r="F17">
-        <v>0.9119043163732835</v>
+        <v>0.9119043163732836</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.024340820069395</v>
       </c>
       <c r="J17">
-        <v>0.98253881998591</v>
+        <v>0.9825388199859107</v>
       </c>
       <c r="K17">
-        <v>0.9958901855602822</v>
+        <v>0.9958901855602827</v>
       </c>
       <c r="L17">
-        <v>0.9807063500245338</v>
+        <v>0.9807063500245344</v>
       </c>
       <c r="M17">
-        <v>0.927655973613182</v>
+        <v>0.9276559736131821</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9552876278258624</v>
+        <v>0.9552876278258621</v>
       </c>
       <c r="D18">
-        <v>0.9831586475510272</v>
+        <v>0.9831586475510266</v>
       </c>
       <c r="E18">
-        <v>0.9678489762818082</v>
+        <v>0.9678489762818077</v>
       </c>
       <c r="F18">
-        <v>0.9158788306843509</v>
+        <v>0.9158788306843495</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025222936866227</v>
+        <v>1.025222936866226</v>
       </c>
       <c r="J18">
-        <v>0.9841531404558171</v>
+        <v>0.9841531404558167</v>
       </c>
       <c r="K18">
-        <v>0.9972745579583754</v>
+        <v>0.9972745579583747</v>
       </c>
       <c r="L18">
-        <v>0.9822467574186438</v>
+        <v>0.9822467574186434</v>
       </c>
       <c r="M18">
-        <v>0.9313268543494703</v>
+        <v>0.9313268543494692</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,22 +1067,22 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9560095276064906</v>
+        <v>0.9560095276064905</v>
       </c>
       <c r="D19">
-        <v>0.9837024450163371</v>
+        <v>0.9837024450163372</v>
       </c>
       <c r="E19">
-        <v>0.9684487685216607</v>
+        <v>0.9684487685216608</v>
       </c>
       <c r="F19">
-        <v>0.9172161080624863</v>
+        <v>0.9172161080624859</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025520486356661</v>
+        <v>1.025520486356662</v>
       </c>
       <c r="J19">
         <v>0.9846989703989512</v>
@@ -1091,10 +1091,10 @@
         <v>0.9977424628858513</v>
       </c>
       <c r="L19">
-        <v>0.9827676809047241</v>
+        <v>0.9827676809047242</v>
       </c>
       <c r="M19">
-        <v>0.9325618763734671</v>
+        <v>0.9325618763734667</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9527577867731195</v>
+        <v>0.9527577867731194</v>
       </c>
       <c r="D20">
         <v>0.981252838283973</v>
       </c>
       <c r="E20">
-        <v>0.9657478044473539</v>
+        <v>0.9657478044473536</v>
       </c>
       <c r="F20">
-        <v>0.9111644864636687</v>
+        <v>0.9111644864636688</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>1.024176997154588</v>
       </c>
       <c r="J20">
-        <v>0.9822396484975103</v>
+        <v>0.9822396484975102</v>
       </c>
       <c r="K20">
         <v>0.9956335434227085</v>
@@ -1132,7 +1132,7 @@
         <v>0.9804209177935529</v>
       </c>
       <c r="M20">
-        <v>0.9269726196743794</v>
+        <v>0.9269726196743796</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9417453130824595</v>
+        <v>0.9417453130824603</v>
       </c>
       <c r="D21">
-        <v>0.9729542726626551</v>
+        <v>0.9729542726626557</v>
       </c>
       <c r="E21">
-        <v>0.9566150254838608</v>
+        <v>0.9566150254838613</v>
       </c>
       <c r="F21">
-        <v>0.8900873006568027</v>
+        <v>0.8900873006568035</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019564627228425</v>
+        <v>1.019564627228426</v>
       </c>
       <c r="J21">
-        <v>0.9738980340413826</v>
+        <v>0.9738980340413833</v>
       </c>
       <c r="K21">
-        <v>0.9884668126707937</v>
+        <v>0.9884668126707943</v>
       </c>
       <c r="L21">
-        <v>0.9724677497182825</v>
+        <v>0.9724677497182831</v>
       </c>
       <c r="M21">
-        <v>0.9075001011367279</v>
+        <v>0.9075001011367284</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9344370685781032</v>
+        <v>0.9344370685781013</v>
       </c>
       <c r="D22">
-        <v>0.9674438868569333</v>
+        <v>0.9674438868569318</v>
       </c>
       <c r="E22">
-        <v>0.95056650004929</v>
+        <v>0.9505665000492883</v>
       </c>
       <c r="F22">
-        <v>0.8755255554058985</v>
+        <v>0.8755255554058972</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.016447715488435</v>
       </c>
       <c r="J22">
-        <v>0.9683512250210815</v>
+        <v>0.9683512250210798</v>
       </c>
       <c r="K22">
-        <v>0.9836891024807943</v>
+        <v>0.983689102480793</v>
       </c>
       <c r="L22">
-        <v>0.9671852467049369</v>
+        <v>0.9671852467049352</v>
       </c>
       <c r="M22">
-        <v>0.8940443264610625</v>
+        <v>0.8940443264610609</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9383511528912498</v>
+        <v>0.9383511528912487</v>
       </c>
       <c r="D23">
-        <v>0.9703954878589346</v>
+        <v>0.9703954878589335</v>
       </c>
       <c r="E23">
-        <v>0.9538046980614636</v>
+        <v>0.953804698061463</v>
       </c>
       <c r="F23">
-        <v>0.8833872855078668</v>
+        <v>0.8833872855078648</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018122839781727</v>
       </c>
       <c r="J23">
-        <v>0.9713230562167272</v>
+        <v>0.9713230562167261</v>
       </c>
       <c r="K23">
-        <v>0.9862501244302397</v>
+        <v>0.9862501244302386</v>
       </c>
       <c r="L23">
-        <v>0.970014848854038</v>
+        <v>0.970014848854037</v>
       </c>
       <c r="M23">
-        <v>0.9013090603664253</v>
+        <v>0.9013090603664233</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1260,13 +1260,13 @@
         <v>0.9529365820780857</v>
       </c>
       <c r="D24">
-        <v>0.9813875364665182</v>
+        <v>0.9813875364665178</v>
       </c>
       <c r="E24">
-        <v>0.9658962652573799</v>
+        <v>0.9658962652573791</v>
       </c>
       <c r="F24">
-        <v>0.9114991263541515</v>
+        <v>0.9114991263541514</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>1.024251082611811</v>
       </c>
       <c r="J24">
-        <v>0.9823749179442942</v>
+        <v>0.982374917944294</v>
       </c>
       <c r="K24">
-        <v>0.9957495866720694</v>
+        <v>0.995749586672069</v>
       </c>
       <c r="L24">
-        <v>0.9805499734669945</v>
+        <v>0.9805499734669941</v>
       </c>
       <c r="M24">
         <v>0.9272817159665399</v>
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9684670741803562</v>
+        <v>0.9684670741803572</v>
       </c>
       <c r="D25">
-        <v>0.9930845380923403</v>
+        <v>0.993084538092341</v>
       </c>
       <c r="E25">
-        <v>0.978814104476406</v>
+        <v>0.978814104476407</v>
       </c>
       <c r="F25">
-        <v>0.9397836733310001</v>
+        <v>0.9397836733310011</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030592014198642</v>
       </c>
       <c r="J25">
-        <v>0.9941043282162884</v>
+        <v>0.9941043282162895</v>
       </c>
       <c r="K25">
         <v>1.005791164761417</v>
       </c>
       <c r="L25">
-        <v>0.9917504555369646</v>
+        <v>0.9917504555369655</v>
       </c>
       <c r="M25">
-        <v>0.9533947060637881</v>
+        <v>0.9533947060637892</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9799578110756633</v>
+        <v>0.9822986261107394</v>
       </c>
       <c r="D2">
-        <v>1.001735154111545</v>
+        <v>1.003495561618374</v>
       </c>
       <c r="E2">
-        <v>0.9883998108271614</v>
+        <v>0.9904144137872812</v>
       </c>
       <c r="F2">
-        <v>0.9598536748042976</v>
+        <v>0.9609631080402552</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03516384385244</v>
+        <v>1.036070449319913</v>
       </c>
       <c r="J2">
-        <v>1.002754964096471</v>
+        <v>1.005021987509258</v>
       </c>
       <c r="K2">
-        <v>1.013170368297181</v>
+        <v>1.014906411586658</v>
       </c>
       <c r="L2">
-        <v>1.00002315586826</v>
+        <v>1.002008926364497</v>
       </c>
       <c r="M2">
-        <v>0.9719021700121731</v>
+        <v>0.9729944777919427</v>
+      </c>
+      <c r="N2">
+        <v>1.006449234009155</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9878659388463917</v>
+        <v>0.9901893005428467</v>
       </c>
       <c r="D3">
-        <v>1.007686293707189</v>
+        <v>1.009436012165969</v>
       </c>
       <c r="E3">
-        <v>0.9950104794804528</v>
+        <v>0.9970128365160278</v>
       </c>
       <c r="F3">
-        <v>0.9733134524465024</v>
+        <v>0.9743903068078891</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038249238402098</v>
+        <v>1.039149942760737</v>
       </c>
       <c r="J3">
-        <v>1.008692946609477</v>
+        <v>1.01095103570585</v>
       </c>
       <c r="K3">
-        <v>1.018221762624031</v>
+        <v>1.019949564505637</v>
       </c>
       <c r="L3">
-        <v>1.005707602770472</v>
+        <v>1.007684081884453</v>
       </c>
       <c r="M3">
-        <v>0.9842995774067772</v>
+        <v>0.985361706102528</v>
+      </c>
+      <c r="N3">
+        <v>1.012386702134257</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9928041477126182</v>
+        <v>0.9951174322876386</v>
       </c>
       <c r="D4">
-        <v>1.011401156467345</v>
+        <v>1.013144774292986</v>
       </c>
       <c r="E4">
-        <v>0.9991440520622245</v>
+        <v>1.001139386696752</v>
       </c>
       <c r="F4">
-        <v>0.9815884630961845</v>
+        <v>0.9826469099450185</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040149484649927</v>
+        <v>1.041046898473705</v>
       </c>
       <c r="J4">
-        <v>1.012393732610226</v>
+        <v>1.014646864679632</v>
       </c>
       <c r="K4">
-        <v>1.02136389980352</v>
+        <v>1.023087100449602</v>
       </c>
       <c r="L4">
-        <v>1.009252818610927</v>
+        <v>1.011224079749399</v>
       </c>
       <c r="M4">
-        <v>0.9919142985154905</v>
+        <v>0.9929593839534655</v>
+      </c>
+      <c r="N4">
+        <v>1.0160877796091</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9948402555545861</v>
+        <v>0.9971495642809556</v>
       </c>
       <c r="D5">
-        <v>1.012932502267134</v>
+        <v>1.01467372985436</v>
       </c>
       <c r="E5">
-        <v>1.00084962903439</v>
+        <v>1.002842204660899</v>
       </c>
       <c r="F5">
-        <v>0.9849731840637554</v>
+        <v>0.9860244379663466</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040926851353369</v>
+        <v>1.041822993644128</v>
       </c>
       <c r="J5">
-        <v>1.013917900915063</v>
+        <v>1.01616912500093</v>
       </c>
       <c r="K5">
-        <v>1.022656558974794</v>
+        <v>1.024377981461305</v>
       </c>
       <c r="L5">
-        <v>1.010713467518306</v>
+        <v>1.012682704996119</v>
       </c>
       <c r="M5">
-        <v>0.9950271683431741</v>
+        <v>0.9960655965727611</v>
+      </c>
+      <c r="N5">
+        <v>1.01761220171466</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9951798648204575</v>
+        <v>0.99748852046491</v>
       </c>
       <c r="D6">
-        <v>1.013187898354885</v>
+        <v>1.014928734300079</v>
       </c>
       <c r="E6">
-        <v>1.001134177811091</v>
+        <v>1.003126300928285</v>
       </c>
       <c r="F6">
-        <v>0.9855362351984381</v>
+        <v>0.9865863110049263</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041056154991608</v>
+        <v>1.041952089969868</v>
       </c>
       <c r="J6">
-        <v>1.014172019997817</v>
+        <v>1.016422933488617</v>
       </c>
       <c r="K6">
-        <v>1.022871996017418</v>
+        <v>1.024593128612629</v>
       </c>
       <c r="L6">
-        <v>1.01095702782936</v>
+        <v>1.012925934969024</v>
       </c>
       <c r="M6">
-        <v>0.9955448909005843</v>
+        <v>0.9965822289530181</v>
+      </c>
+      <c r="N6">
+        <v>1.01786637063951</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9928315075252887</v>
+        <v>0.9951447379877589</v>
       </c>
       <c r="D7">
-        <v>1.011421735103328</v>
+        <v>1.013165320329888</v>
       </c>
       <c r="E7">
-        <v>0.9991669656641493</v>
+        <v>1.001162262700644</v>
       </c>
       <c r="F7">
-        <v>0.9816340476926584</v>
+        <v>0.9826923963945906</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040159954448581</v>
+        <v>1.041057350859959</v>
       </c>
       <c r="J7">
-        <v>1.012414220198517</v>
+        <v>1.014667326107513</v>
       </c>
       <c r="K7">
-        <v>1.021381281120557</v>
+        <v>1.023104457415613</v>
       </c>
       <c r="L7">
-        <v>1.009272450235922</v>
+        <v>1.011243683690391</v>
       </c>
       <c r="M7">
-        <v>0.9919562290049471</v>
+        <v>0.9930012235946261</v>
+      </c>
+      <c r="N7">
+        <v>1.016108270094555</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9826692999864978</v>
+        <v>0.9850039446172901</v>
       </c>
       <c r="D8">
-        <v>1.003775897539256</v>
+        <v>1.00553250993035</v>
       </c>
       <c r="E8">
-        <v>0.990665193783055</v>
+        <v>0.9926754566336999</v>
       </c>
       <c r="F8">
-        <v>0.9644988889689312</v>
+        <v>0.9655966944195012</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036227481360675</v>
+        <v>1.037131973504424</v>
       </c>
       <c r="J8">
-        <v>1.004792458264912</v>
+        <v>1.007056277584007</v>
       </c>
       <c r="K8">
-        <v>1.014904963669658</v>
+        <v>1.01663805776504</v>
       </c>
       <c r="L8">
-        <v>1.001973113485569</v>
+        <v>1.003955566204721</v>
       </c>
       <c r="M8">
-        <v>0.9761822317613962</v>
+        <v>0.9772637668389144</v>
+      </c>
+      <c r="N8">
+        <v>1.008486413009146</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9632401014613068</v>
+        <v>0.965623513212153</v>
       </c>
       <c r="D9">
-        <v>0.9891484173651273</v>
+        <v>0.990935420060495</v>
       </c>
       <c r="E9">
-        <v>0.9744615554267511</v>
+        <v>0.9765063676428616</v>
       </c>
       <c r="F9">
-        <v>0.9304266682354342</v>
+        <v>0.9316202941762795</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028478583678721</v>
+        <v>1.029400476097415</v>
       </c>
       <c r="J9">
-        <v>0.9901612372220386</v>
+        <v>0.9924514567312044</v>
       </c>
       <c r="K9">
-        <v>1.002420042202156</v>
+        <v>1.004177295940152</v>
       </c>
       <c r="L9">
-        <v>0.9879830270836637</v>
+        <v>0.9899924713937616</v>
       </c>
       <c r="M9">
-        <v>0.9447592876884063</v>
+        <v>0.9459296000700518</v>
+      </c>
+      <c r="N9">
+        <v>0.9938608516355361</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9490067906493741</v>
+        <v>0.9514333106027364</v>
       </c>
       <c r="D10">
-        <v>0.9784267385867087</v>
+        <v>0.9802412425432471</v>
       </c>
       <c r="E10">
-        <v>0.9626345560368154</v>
+        <v>0.9647102717685533</v>
       </c>
       <c r="F10">
-        <v>0.9040908856790567</v>
+        <v>0.905378297980435</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022616928654337</v>
+        <v>1.023555395891134</v>
       </c>
       <c r="J10">
-        <v>0.9794005954175878</v>
+        <v>0.9817157515491359</v>
       </c>
       <c r="K10">
-        <v>0.9931967444459893</v>
+        <v>0.9949766530030922</v>
       </c>
       <c r="L10">
-        <v>0.9777128988854455</v>
+        <v>0.9797473296991115</v>
       </c>
       <c r="M10">
-        <v>0.9204383842877969</v>
+        <v>0.9216955214741526</v>
+      </c>
+      <c r="N10">
+        <v>0.9831099005207065</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9424643142303212</v>
+        <v>0.9449130747882315</v>
       </c>
       <c r="D11">
-        <v>0.9734962354809141</v>
+        <v>0.9753251369667933</v>
       </c>
       <c r="E11">
-        <v>0.9572106220287631</v>
+        <v>0.9593023858453603</v>
       </c>
       <c r="F11">
-        <v>0.8914933926814742</v>
+        <v>0.8928333201828104</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019868792122477</v>
+        <v>1.020816228465872</v>
       </c>
       <c r="J11">
-        <v>0.9744432588500165</v>
+        <v>0.9767717320574918</v>
       </c>
       <c r="K11">
-        <v>0.9889359016029767</v>
+        <v>0.9907278856057224</v>
       </c>
       <c r="L11">
-        <v>0.9729872607121245</v>
+        <v>0.9750348956709148</v>
       </c>
       <c r="M11">
-        <v>0.9087993349024585</v>
+        <v>0.9101050387630913</v>
+      </c>
+      <c r="N11">
+        <v>0.9781588599542971</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9399687569727768</v>
+        <v>0.9424264480116711</v>
       </c>
       <c r="D12">
-        <v>0.97161504287239</v>
+        <v>0.9734497653481254</v>
       </c>
       <c r="E12">
-        <v>0.9551437928146552</v>
+        <v>0.9572420190140607</v>
       </c>
       <c r="F12">
-        <v>0.8865934683254166</v>
+        <v>0.8879553797255425</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01881120324067</v>
+        <v>1.019762322823812</v>
       </c>
       <c r="J12">
-        <v>0.9725504899224436</v>
+        <v>0.9748843875608849</v>
       </c>
       <c r="K12">
-        <v>0.9873070357098686</v>
+        <v>0.9891039375555333</v>
       </c>
       <c r="L12">
-        <v>0.9711839593034982</v>
+        <v>0.9732369493550727</v>
       </c>
       <c r="M12">
-        <v>0.9042717178242164</v>
+        <v>0.9055977408440825</v>
+      </c>
+      <c r="N12">
+        <v>0.9762688352120236</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9405071801839838</v>
+        <v>0.9429629226364868</v>
       </c>
       <c r="D13">
-        <v>0.9720209424079128</v>
+        <v>0.9738543928092369</v>
       </c>
       <c r="E13">
-        <v>0.9555896200518631</v>
+        <v>0.9576864353042268</v>
       </c>
       <c r="F13">
-        <v>0.8876553316226048</v>
+        <v>0.889012400237796</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019039827776156</v>
+        <v>1.019990139629693</v>
       </c>
       <c r="J13">
-        <v>0.9729589471561124</v>
+        <v>0.9752916575712802</v>
       </c>
       <c r="K13">
-        <v>0.9876586397284749</v>
+        <v>0.9894544652045196</v>
       </c>
       <c r="L13">
-        <v>0.9715730616031107</v>
+        <v>0.9736248806965603</v>
       </c>
       <c r="M13">
-        <v>0.9052529140291922</v>
+        <v>0.9065744615930315</v>
+      </c>
+      <c r="N13">
+        <v>0.9766766835925483</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9422594209322296</v>
+        <v>0.9447089050873564</v>
       </c>
       <c r="D14">
-        <v>0.9733417952355646</v>
+        <v>0.9751711675155477</v>
       </c>
       <c r="E14">
-        <v>0.9570408855863142</v>
+        <v>0.9591331726328196</v>
       </c>
       <c r="F14">
-        <v>0.8910931569653474</v>
+        <v>0.8924348458492763</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01978215864376</v>
+        <v>1.020729891656526</v>
       </c>
       <c r="J14">
-        <v>0.9742878951523496</v>
+        <v>0.9766168062779773</v>
       </c>
       <c r="K14">
-        <v>0.988802242659911</v>
+        <v>0.990594623679992</v>
       </c>
       <c r="L14">
-        <v>0.9728392195120812</v>
+        <v>0.9748872872697975</v>
       </c>
       <c r="M14">
-        <v>0.9084295176131323</v>
+        <v>0.9097368497349382</v>
+      </c>
+      <c r="N14">
+        <v>0.9780037141624054</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.943330081820087</v>
+        <v>0.9457758035238804</v>
       </c>
       <c r="D15">
-        <v>0.9741487940573004</v>
+        <v>0.9759757200119661</v>
       </c>
       <c r="E15">
-        <v>0.9579279210297713</v>
+        <v>0.9600174882161441</v>
       </c>
       <c r="F15">
-        <v>0.8931805898716227</v>
+        <v>0.8945131576953007</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020234470905001</v>
+        <v>1.021180664718509</v>
       </c>
       <c r="J15">
-        <v>0.975099665197301</v>
+        <v>0.9774263024232919</v>
       </c>
       <c r="K15">
-        <v>0.9895005222214195</v>
+        <v>0.9912908417062609</v>
       </c>
       <c r="L15">
-        <v>0.9736127712997075</v>
+        <v>0.9756585908033885</v>
       </c>
       <c r="M15">
-        <v>0.9103582854449861</v>
+        <v>0.9116571853685081</v>
+      </c>
+      <c r="N15">
+        <v>0.9788143598850966</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9494323303542137</v>
+        <v>0.9518574598217817</v>
       </c>
       <c r="D16">
-        <v>0.9787473745670778</v>
+        <v>0.9805609830618495</v>
       </c>
       <c r="E16">
-        <v>0.9629876152328012</v>
+        <v>0.9650623298656233</v>
       </c>
       <c r="F16">
-        <v>0.9048985770752566</v>
+        <v>0.9061828063142168</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022794474827332</v>
+        <v>1.023732390820811</v>
       </c>
       <c r="J16">
-        <v>0.9797227926387105</v>
+        <v>0.9820371256828947</v>
       </c>
       <c r="K16">
-        <v>0.9934734130861228</v>
+        <v>0.9952525750289397</v>
       </c>
       <c r="L16">
-        <v>0.9780201655245181</v>
+        <v>0.9800537773680494</v>
       </c>
       <c r="M16">
-        <v>0.921184540198255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9224387324046096</v>
+      </c>
+      <c r="N16">
+        <v>0.9834317310425971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9531532323589642</v>
+        <v>0.9555664814541438</v>
       </c>
       <c r="D17">
-        <v>0.9815507520150364</v>
+        <v>0.9833567321211961</v>
       </c>
       <c r="E17">
-        <v>0.9660761664017118</v>
+        <v>0.9681423387033946</v>
       </c>
       <c r="F17">
-        <v>0.9119043163732836</v>
+        <v>0.9131618015240363</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024340820069395</v>
+        <v>1.025274071344062</v>
       </c>
       <c r="J17">
-        <v>0.9825388199859107</v>
+        <v>0.9848461686351173</v>
       </c>
       <c r="K17">
-        <v>0.9958901855602827</v>
+        <v>0.9976630098005093</v>
       </c>
       <c r="L17">
-        <v>0.9807063500245344</v>
+        <v>0.9827329978381349</v>
       </c>
       <c r="M17">
-        <v>0.9276559736131821</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9288854167233751</v>
+      </c>
+      <c r="N17">
+        <v>0.9862447631580137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9552876278258621</v>
+        <v>0.95769428130639</v>
       </c>
       <c r="D18">
-        <v>0.9831586475510266</v>
+        <v>0.9849604100931058</v>
       </c>
       <c r="E18">
-        <v>0.9678489762818077</v>
+        <v>0.9699104149633654</v>
       </c>
       <c r="F18">
-        <v>0.9158788306843495</v>
+        <v>0.9171218058378011</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025222936866226</v>
+        <v>1.026153633236537</v>
       </c>
       <c r="J18">
-        <v>0.9841531404558167</v>
+        <v>0.9864566500700661</v>
       </c>
       <c r="K18">
-        <v>0.9972745579583747</v>
+        <v>0.9990438964692525</v>
       </c>
       <c r="L18">
-        <v>0.9822467574186434</v>
+        <v>0.9842695657037408</v>
       </c>
       <c r="M18">
-        <v>0.9313268543494692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.932542865972579</v>
+      </c>
+      <c r="N18">
+        <v>0.9878575316613244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9560095276064905</v>
+        <v>0.9584139855105711</v>
       </c>
       <c r="D19">
-        <v>0.9837024450163372</v>
+        <v>0.9855028063928352</v>
       </c>
       <c r="E19">
-        <v>0.9684487685216608</v>
+        <v>0.9705086328971327</v>
       </c>
       <c r="F19">
-        <v>0.9172161080624859</v>
+        <v>0.9184543045783903</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025520486356662</v>
+        <v>1.026450337751964</v>
       </c>
       <c r="J19">
-        <v>0.9846989703989512</v>
+        <v>0.9870012083914984</v>
       </c>
       <c r="K19">
-        <v>0.9977424628858513</v>
+        <v>0.9995106463858432</v>
       </c>
       <c r="L19">
-        <v>0.9827676809047242</v>
+        <v>0.9847892154719178</v>
       </c>
       <c r="M19">
-        <v>0.9325618763734667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.933773463981578</v>
+      </c>
+      <c r="N19">
+        <v>0.988402863318035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9527577867731194</v>
+        <v>0.9551722751634559</v>
       </c>
       <c r="D20">
-        <v>0.981252838283973</v>
+        <v>0.983059612255758</v>
       </c>
       <c r="E20">
-        <v>0.9657478044473536</v>
+        <v>0.9678148668947845</v>
       </c>
       <c r="F20">
-        <v>0.9111644864636688</v>
+        <v>0.9124247243815617</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024176997154588</v>
+        <v>1.025110731259231</v>
       </c>
       <c r="J20">
-        <v>0.9822396484975102</v>
+        <v>0.9845477216144249</v>
       </c>
       <c r="K20">
-        <v>0.9956335434227085</v>
+        <v>0.9974070252663555</v>
       </c>
       <c r="L20">
-        <v>0.9804209177935529</v>
+        <v>0.9824482892117476</v>
       </c>
       <c r="M20">
-        <v>0.9269726196743796</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.928204610641583</v>
+      </c>
+      <c r="N20">
+        <v>0.9859458923083196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9417453130824603</v>
+        <v>0.9441966203593186</v>
       </c>
       <c r="D21">
-        <v>0.9729542726626557</v>
+        <v>0.974784831787142</v>
       </c>
       <c r="E21">
-        <v>0.9566150254838613</v>
+        <v>0.9587086311259058</v>
       </c>
       <c r="F21">
-        <v>0.8900873006568035</v>
+        <v>0.8914334427639661</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019564627228426</v>
+        <v>1.020513109083326</v>
       </c>
       <c r="J21">
-        <v>0.9738980340413833</v>
+        <v>0.9762280497722693</v>
       </c>
       <c r="K21">
-        <v>0.9884668126707943</v>
+        <v>0.9902601951261685</v>
       </c>
       <c r="L21">
-        <v>0.9724677497182831</v>
+        <v>0.9745169087906111</v>
       </c>
       <c r="M21">
-        <v>0.9075001011367284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9088115497154091</v>
+      </c>
+      <c r="N21">
+        <v>0.9776144055778685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9344370685781013</v>
+        <v>0.9369155062228152</v>
       </c>
       <c r="D22">
-        <v>0.9674438868569318</v>
+        <v>0.9692922221231495</v>
       </c>
       <c r="E22">
-        <v>0.9505665000492883</v>
+        <v>0.9526797791150858</v>
       </c>
       <c r="F22">
-        <v>0.8755255554058972</v>
+        <v>0.8769407003662261</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016447715488435</v>
+        <v>1.017407578744834</v>
       </c>
       <c r="J22">
-        <v>0.9683512250210798</v>
+        <v>0.9706978854561019</v>
       </c>
       <c r="K22">
-        <v>0.983689102480793</v>
+        <v>0.9854975782605041</v>
       </c>
       <c r="L22">
-        <v>0.9671852467049352</v>
+        <v>0.969250788111339</v>
       </c>
       <c r="M22">
-        <v>0.8940443264610609</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8954195225412873</v>
+      </c>
+      <c r="N22">
+        <v>0.9720763877940534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9383511528912487</v>
+        <v>0.9408147719643052</v>
       </c>
       <c r="D23">
-        <v>0.9703954878589335</v>
+        <v>0.9722340870540954</v>
       </c>
       <c r="E23">
-        <v>0.953804698061463</v>
+        <v>0.9559072197079842</v>
       </c>
       <c r="F23">
-        <v>0.8833872855078648</v>
+        <v>0.8847640915634003</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018122839781727</v>
+        <v>1.01907643075385</v>
       </c>
       <c r="J23">
-        <v>0.9713230562167261</v>
+        <v>0.9736605779560642</v>
       </c>
       <c r="K23">
-        <v>0.9862501244302386</v>
+        <v>0.9880503121639224</v>
       </c>
       <c r="L23">
-        <v>0.970014848854037</v>
+        <v>0.9720714096808261</v>
       </c>
       <c r="M23">
-        <v>0.9013090603664233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9026488461139266</v>
+      </c>
+      <c r="N23">
+        <v>0.9750432876571911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9529365820780857</v>
+        <v>0.9553505094615091</v>
       </c>
       <c r="D24">
-        <v>0.9813875364665178</v>
+        <v>0.9831939510148019</v>
       </c>
       <c r="E24">
-        <v>0.9658962652573791</v>
+        <v>0.9679629247239877</v>
       </c>
       <c r="F24">
-        <v>0.9114991263541514</v>
+        <v>0.9127581170957627</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024251082611811</v>
+        <v>1.025184598039285</v>
       </c>
       <c r="J24">
-        <v>0.982374917944294</v>
+        <v>0.9846826629867157</v>
       </c>
       <c r="K24">
-        <v>0.995749586672069</v>
+        <v>0.9975227707276326</v>
       </c>
       <c r="L24">
-        <v>0.9805499734669941</v>
+        <v>0.9825770172384334</v>
       </c>
       <c r="M24">
-        <v>0.9272817159665399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9285125526066824</v>
+      </c>
+      <c r="N24">
+        <v>0.9860810253128369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9684670741803572</v>
+        <v>0.970836293076195</v>
       </c>
       <c r="D25">
-        <v>0.993084538092341</v>
+        <v>0.9948626094765264</v>
       </c>
       <c r="E25">
-        <v>0.978814104476407</v>
+        <v>0.9808488091320574</v>
       </c>
       <c r="F25">
-        <v>0.9397836733310011</v>
+        <v>0.9409484186061546</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030592014198642</v>
+        <v>1.031508686153433</v>
       </c>
       <c r="J25">
-        <v>0.9941043282162895</v>
+        <v>0.9963866339505649</v>
       </c>
       <c r="K25">
-        <v>1.005791164761417</v>
+        <v>1.007541203784031</v>
       </c>
       <c r="L25">
-        <v>0.9917504555369655</v>
+        <v>0.9937518806324673</v>
       </c>
       <c r="M25">
-        <v>0.9533947060637892</v>
+        <v>0.9545382634450137</v>
+      </c>
+      <c r="N25">
+        <v>0.9978016172579192</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
@@ -421,37 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9822986261107394</v>
+        <v>0.9969720439801927</v>
       </c>
       <c r="D2">
-        <v>1.003495561618374</v>
+        <v>1.016020250039989</v>
       </c>
       <c r="E2">
-        <v>0.9904144137872812</v>
-      </c>
-      <c r="F2">
-        <v>0.9609631080402552</v>
+        <v>1.003758794911748</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036070449319913</v>
+        <v>1.043820631939984</v>
       </c>
       <c r="J2">
-        <v>1.005021987509258</v>
+        <v>1.019243699420049</v>
       </c>
       <c r="K2">
-        <v>1.014906411586658</v>
+        <v>1.027260819404649</v>
       </c>
       <c r="L2">
-        <v>1.002008926364497</v>
-      </c>
-      <c r="M2">
-        <v>0.9729944777919427</v>
+        <v>1.015166010963719</v>
       </c>
       <c r="N2">
-        <v>1.006449234009155</v>
+        <v>1.020691142382112</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9901893005428467</v>
+        <v>1.002979574586243</v>
       </c>
       <c r="D3">
-        <v>1.009436012165969</v>
+        <v>1.02058996965105</v>
       </c>
       <c r="E3">
-        <v>0.9970128365160278</v>
-      </c>
-      <c r="F3">
-        <v>0.9743903068078891</v>
+        <v>1.008653981255933</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039149942760737</v>
+        <v>1.045808386367156</v>
       </c>
       <c r="J3">
-        <v>1.01095103570585</v>
+        <v>1.023389341648458</v>
       </c>
       <c r="K3">
-        <v>1.019949564505637</v>
+        <v>1.0309660056121</v>
       </c>
       <c r="L3">
-        <v>1.007684081884453</v>
-      </c>
-      <c r="M3">
-        <v>0.985361706102528</v>
+        <v>1.019177317421517</v>
       </c>
       <c r="N3">
-        <v>1.012386702134257</v>
+        <v>1.024842671897997</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9951174322876386</v>
+        <v>1.00676388240697</v>
       </c>
       <c r="D4">
-        <v>1.013144774292986</v>
+        <v>1.023469152523006</v>
       </c>
       <c r="E4">
-        <v>1.001139386696752</v>
-      </c>
-      <c r="F4">
-        <v>0.9826469099450185</v>
+        <v>1.01174405961362</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041046898473705</v>
+        <v>1.047045522954807</v>
       </c>
       <c r="J4">
-        <v>1.014646864679632</v>
+        <v>1.025996135759495</v>
       </c>
       <c r="K4">
-        <v>1.023087100449602</v>
+        <v>1.033292342580717</v>
       </c>
       <c r="L4">
-        <v>1.011224079749399</v>
-      </c>
-      <c r="M4">
-        <v>0.9929593839534655</v>
+        <v>1.021702780790161</v>
       </c>
       <c r="N4">
-        <v>1.0160877796091</v>
+        <v>1.027453167955675</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9971495642809556</v>
+        <v>1.008331286231253</v>
       </c>
       <c r="D5">
-        <v>1.01467372985436</v>
+        <v>1.024661722823171</v>
       </c>
       <c r="E5">
-        <v>1.002842204660899</v>
-      </c>
-      <c r="F5">
-        <v>0.9860244379663466</v>
+        <v>1.013025407703204</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041822993644128</v>
+        <v>1.047554261945452</v>
       </c>
       <c r="J5">
-        <v>1.01616912500093</v>
+        <v>1.02707465827016</v>
       </c>
       <c r="K5">
-        <v>1.024377981461305</v>
+        <v>1.034253968369803</v>
       </c>
       <c r="L5">
-        <v>1.012682704996119</v>
-      </c>
-      <c r="M5">
-        <v>0.9960655965727611</v>
+        <v>1.022748405563393</v>
       </c>
       <c r="N5">
-        <v>1.01761220171466</v>
+        <v>1.028533222092013</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.99748852046491</v>
+        <v>1.008593112492113</v>
       </c>
       <c r="D6">
-        <v>1.014928734300079</v>
+        <v>1.024860936034635</v>
       </c>
       <c r="E6">
-        <v>1.003126300928285</v>
-      </c>
-      <c r="F6">
-        <v>0.9865863110049263</v>
+        <v>1.013239535268079</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041952089969868</v>
+        <v>1.047639026680877</v>
       </c>
       <c r="J6">
-        <v>1.016422933488617</v>
+        <v>1.02725474906003</v>
       </c>
       <c r="K6">
-        <v>1.024593128612629</v>
+        <v>1.034414488506703</v>
       </c>
       <c r="L6">
-        <v>1.012925934969024</v>
-      </c>
-      <c r="M6">
-        <v>0.9965822289530181</v>
+        <v>1.022923047285994</v>
       </c>
       <c r="N6">
-        <v>1.01786637063951</v>
+        <v>1.028713568631462</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9951447379877589</v>
+        <v>1.006784917109103</v>
       </c>
       <c r="D7">
-        <v>1.013165320329888</v>
+        <v>1.023485156815522</v>
       </c>
       <c r="E7">
-        <v>1.001162262700644</v>
-      </c>
-      <c r="F7">
-        <v>0.9826923963945906</v>
+        <v>1.011761249639392</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041057350859959</v>
+        <v>1.047052364857468</v>
       </c>
       <c r="J7">
-        <v>1.014667326107513</v>
+        <v>1.026010614339268</v>
       </c>
       <c r="K7">
-        <v>1.023104457415613</v>
+        <v>1.033305255325299</v>
       </c>
       <c r="L7">
-        <v>1.011243683690391</v>
-      </c>
-      <c r="M7">
-        <v>0.9930012235946261</v>
+        <v>1.021716814762921</v>
       </c>
       <c r="N7">
-        <v>1.016108270094555</v>
+        <v>1.027467667096692</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9850039446172901</v>
+        <v>0.9990243433876232</v>
       </c>
       <c r="D8">
-        <v>1.00553250993035</v>
+        <v>1.01758118394991</v>
       </c>
       <c r="E8">
-        <v>0.9926754566336999</v>
-      </c>
-      <c r="F8">
-        <v>0.9655966944195012</v>
+        <v>1.005429689206703</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037131973504424</v>
+        <v>1.044502810570781</v>
       </c>
       <c r="J8">
-        <v>1.007056277584007</v>
+        <v>1.020660885272443</v>
       </c>
       <c r="K8">
-        <v>1.01663805776504</v>
+        <v>1.028528158823236</v>
       </c>
       <c r="L8">
-        <v>1.003955566204721</v>
-      </c>
-      <c r="M8">
-        <v>0.9772637668389144</v>
+        <v>1.016536610806337</v>
       </c>
       <c r="N8">
-        <v>1.008486413009146</v>
+        <v>1.022110340800969</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.965623513212153</v>
+        <v>0.9845053584003062</v>
       </c>
       <c r="D9">
-        <v>0.990935420060495</v>
+        <v>1.006544733326303</v>
       </c>
       <c r="E9">
-        <v>0.9765063676428616</v>
-      </c>
-      <c r="F9">
-        <v>0.9316202941762795</v>
+        <v>0.993639800564328</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029400476097415</v>
+        <v>1.039615031889188</v>
       </c>
       <c r="J9">
-        <v>0.9924514567312044</v>
+        <v>1.010617392689749</v>
       </c>
       <c r="K9">
-        <v>1.004177295940152</v>
+        <v>1.019532511790138</v>
       </c>
       <c r="L9">
-        <v>0.9899924713937616</v>
-      </c>
-      <c r="M9">
-        <v>0.9459296000700518</v>
+        <v>1.006836917362193</v>
       </c>
       <c r="N9">
-        <v>0.9938608516355361</v>
+        <v>1.012052585306803</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9514333106027364</v>
+        <v>0.9741736663215302</v>
       </c>
       <c r="D10">
-        <v>0.9802412425432471</v>
+        <v>0.9987039760538986</v>
       </c>
       <c r="E10">
-        <v>0.9647102717685533</v>
-      </c>
-      <c r="F10">
-        <v>0.905378297980435</v>
+        <v>0.985293329287051</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023555395891134</v>
+        <v>1.036061201251834</v>
       </c>
       <c r="J10">
-        <v>0.9817157515491359</v>
+        <v>1.003450798445839</v>
       </c>
       <c r="K10">
-        <v>0.9949766530030922</v>
+        <v>1.013096670107333</v>
       </c>
       <c r="L10">
-        <v>0.9797473296991115</v>
-      </c>
-      <c r="M10">
-        <v>0.9216955214741526</v>
+        <v>0.9999332930371597</v>
       </c>
       <c r="N10">
-        <v>0.9831099005207065</v>
+        <v>1.004875813677047</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9449130747882315</v>
+        <v>0.9695236287290713</v>
       </c>
       <c r="D11">
-        <v>0.9753251369667933</v>
+        <v>0.9951797026446625</v>
       </c>
       <c r="E11">
-        <v>0.9593023858453603</v>
-      </c>
-      <c r="F11">
-        <v>0.8928333201828104</v>
+        <v>0.9815483945697727</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020816228465872</v>
+        <v>1.03444480620207</v>
       </c>
       <c r="J11">
-        <v>0.9767717320574918</v>
+        <v>1.000221615910715</v>
       </c>
       <c r="K11">
-        <v>0.9907278856057224</v>
+        <v>1.01019309885221</v>
       </c>
       <c r="L11">
-        <v>0.9750348956709148</v>
-      </c>
-      <c r="M11">
-        <v>0.9101050387630913</v>
+        <v>0.9968268768789605</v>
       </c>
       <c r="N11">
-        <v>0.9781588599542971</v>
+        <v>1.001642045332331</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9424264480116711</v>
+        <v>0.9677678361721654</v>
       </c>
       <c r="D12">
-        <v>0.9734497653481254</v>
+        <v>0.9938498345165993</v>
       </c>
       <c r="E12">
-        <v>0.9572420190140607</v>
-      </c>
-      <c r="F12">
-        <v>0.8879553797255425</v>
+        <v>0.9801362267129025</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019762322823812</v>
+        <v>1.033832034645314</v>
       </c>
       <c r="J12">
-        <v>0.9748843875608849</v>
+        <v>0.9990018587779558</v>
       </c>
       <c r="K12">
-        <v>0.9891039375555333</v>
+        <v>1.009095818196299</v>
       </c>
       <c r="L12">
-        <v>0.9732369493550727</v>
-      </c>
-      <c r="M12">
-        <v>0.9055977408440825</v>
+        <v>0.9956541432555186</v>
       </c>
       <c r="N12">
-        <v>0.9762688352120236</v>
+        <v>1.000420556004535</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9429629226364868</v>
+        <v>0.9681457877091503</v>
       </c>
       <c r="D13">
-        <v>0.9738543928092369</v>
+        <v>0.9941360606789232</v>
       </c>
       <c r="E13">
-        <v>0.9576864353042268</v>
-      </c>
-      <c r="F13">
-        <v>0.889012400237796</v>
+        <v>0.9804401231009769</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019990139629693</v>
+        <v>1.033964048348104</v>
       </c>
       <c r="J13">
-        <v>0.9752916575712802</v>
+        <v>0.9992644426871958</v>
       </c>
       <c r="K13">
-        <v>0.9894544652045196</v>
+        <v>1.009332058678838</v>
       </c>
       <c r="L13">
-        <v>0.9736248806965603</v>
-      </c>
-      <c r="M13">
-        <v>0.9065744615930315</v>
+        <v>0.9959065746058756</v>
       </c>
       <c r="N13">
-        <v>0.9766766835925483</v>
+        <v>1.000683512813045</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9447089050873564</v>
+        <v>0.9693790897506408</v>
       </c>
       <c r="D14">
-        <v>0.9751711675155477</v>
+        <v>0.9950702081029336</v>
       </c>
       <c r="E14">
-        <v>0.9591331726328196</v>
-      </c>
-      <c r="F14">
-        <v>0.8924348458492763</v>
+        <v>0.9814321044808931</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020729891656526</v>
+        <v>1.034394411080198</v>
       </c>
       <c r="J14">
-        <v>0.9766168062779773</v>
+        <v>1.000121212814</v>
       </c>
       <c r="K14">
-        <v>0.990594623679992</v>
+        <v>1.010102787568449</v>
       </c>
       <c r="L14">
-        <v>0.9748872872697975</v>
-      </c>
-      <c r="M14">
-        <v>0.9097368497349382</v>
+        <v>0.9967303312099699</v>
       </c>
       <c r="N14">
-        <v>0.9780037141624054</v>
+        <v>1.001541499651702</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9457758035238804</v>
+        <v>0.9701351176007353</v>
       </c>
       <c r="D15">
-        <v>0.9759757200119661</v>
+        <v>0.995642967514745</v>
       </c>
       <c r="E15">
-        <v>0.9600174882161441</v>
-      </c>
-      <c r="F15">
-        <v>0.8945131576953007</v>
+        <v>0.9820404500947444</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021180664718509</v>
+        <v>1.034657909838493</v>
       </c>
       <c r="J15">
-        <v>0.9774263024232919</v>
+        <v>1.000646364653786</v>
       </c>
       <c r="K15">
-        <v>0.9912908417062609</v>
+        <v>1.010575134032522</v>
       </c>
       <c r="L15">
-        <v>0.9756585908033885</v>
-      </c>
-      <c r="M15">
-        <v>0.9116571853685081</v>
+        <v>0.9972353335632239</v>
       </c>
       <c r="N15">
-        <v>0.9788143598850966</v>
+        <v>1.002067397267337</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9518574598217817</v>
+        <v>0.9744783870037029</v>
       </c>
       <c r="D16">
-        <v>0.9805609830618495</v>
+        <v>0.9989350335365805</v>
       </c>
       <c r="E16">
-        <v>0.9650623298656233</v>
-      </c>
-      <c r="F16">
-        <v>0.9061828063142168</v>
+        <v>0.9855389889464893</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023732390820811</v>
+        <v>1.036166782316887</v>
       </c>
       <c r="J16">
-        <v>0.9820371256828947</v>
+        <v>1.003662340649629</v>
       </c>
       <c r="K16">
-        <v>0.9952525750289397</v>
+        <v>1.013286808568444</v>
       </c>
       <c r="L16">
-        <v>0.9800537773680494</v>
-      </c>
-      <c r="M16">
-        <v>0.9224387324046096</v>
+        <v>1.000136882226722</v>
       </c>
       <c r="N16">
-        <v>0.9834317310425971</v>
+        <v>1.005087656295031</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9555664814541438</v>
+        <v>0.977154199160756</v>
       </c>
       <c r="D17">
-        <v>0.9833567321211961</v>
+        <v>1.000964538672443</v>
       </c>
       <c r="E17">
-        <v>0.9681423387033946</v>
-      </c>
-      <c r="F17">
-        <v>0.9131618015240363</v>
+        <v>0.9876975021309152</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025274071344062</v>
+        <v>1.037092008348478</v>
       </c>
       <c r="J17">
-        <v>0.9848461686351173</v>
+        <v>1.005519528520769</v>
       </c>
       <c r="K17">
-        <v>0.9976630098005093</v>
+        <v>1.014955677141553</v>
       </c>
       <c r="L17">
-        <v>0.9827329978381349</v>
-      </c>
-      <c r="M17">
-        <v>0.9288854167233751</v>
+        <v>1.001924732879822</v>
       </c>
       <c r="N17">
-        <v>0.9862447631580137</v>
+        <v>1.00694748158597</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.95769428130639</v>
+        <v>0.978698090871065</v>
       </c>
       <c r="D18">
-        <v>0.9849604100931058</v>
+        <v>1.002135952279446</v>
       </c>
       <c r="E18">
-        <v>0.9699104149633654</v>
-      </c>
-      <c r="F18">
-        <v>0.9171218058378011</v>
+        <v>0.98894400756176</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026153633236537</v>
+        <v>1.037624245537673</v>
       </c>
       <c r="J18">
-        <v>0.9864566500700661</v>
+        <v>1.006590736947011</v>
       </c>
       <c r="K18">
-        <v>0.9990438964692525</v>
+        <v>1.015917917979619</v>
       </c>
       <c r="L18">
-        <v>0.9842695657037408</v>
-      </c>
-      <c r="M18">
-        <v>0.932542865972579</v>
+        <v>1.002956350405107</v>
       </c>
       <c r="N18">
-        <v>0.9878575316613244</v>
+        <v>1.008020211251047</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9584139855105711</v>
+        <v>0.9792217168792042</v>
       </c>
       <c r="D19">
-        <v>0.9855028063928352</v>
+        <v>1.002533317091358</v>
       </c>
       <c r="E19">
-        <v>0.9705086328971327</v>
-      </c>
-      <c r="F19">
-        <v>0.9184543045783903</v>
+        <v>0.9893669526069494</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026450337751964</v>
+        <v>1.037804484764154</v>
       </c>
       <c r="J19">
-        <v>0.9870012083914984</v>
+        <v>1.006953985312023</v>
       </c>
       <c r="K19">
-        <v>0.9995106463858432</v>
+        <v>1.016244155503599</v>
       </c>
       <c r="L19">
-        <v>0.9847892154719178</v>
-      </c>
-      <c r="M19">
-        <v>0.933773463981578</v>
+        <v>1.003306241414311</v>
       </c>
       <c r="N19">
-        <v>0.988402863318035</v>
+        <v>1.008383975470402</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9551722751634559</v>
+        <v>0.9768688684395231</v>
       </c>
       <c r="D20">
-        <v>0.983059612255758</v>
+        <v>1.000748080270885</v>
       </c>
       <c r="E20">
-        <v>0.9678148668947845</v>
-      </c>
-      <c r="F20">
-        <v>0.9124247243815617</v>
+        <v>0.9874672191364529</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025110731259231</v>
+        <v>1.036993513978911</v>
       </c>
       <c r="J20">
-        <v>0.9845477216144249</v>
+        <v>1.005321526454359</v>
       </c>
       <c r="K20">
-        <v>0.9974070252663555</v>
+        <v>1.01477778833111</v>
       </c>
       <c r="L20">
-        <v>0.9824482892117476</v>
-      </c>
-      <c r="M20">
-        <v>0.928204610641583</v>
+        <v>1.001734081291437</v>
       </c>
       <c r="N20">
-        <v>0.9859458923083196</v>
+        <v>1.006749198333915</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9441966203593186</v>
+        <v>0.9690167191830484</v>
       </c>
       <c r="D21">
-        <v>0.974784831787142</v>
+        <v>0.9947957109149524</v>
       </c>
       <c r="E21">
-        <v>0.9587086311259058</v>
-      </c>
-      <c r="F21">
-        <v>0.8914334427639661</v>
+        <v>0.9811405866320689</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020513109083326</v>
+        <v>1.034268027602226</v>
       </c>
       <c r="J21">
-        <v>0.9762280497722693</v>
+        <v>0.9998694872813383</v>
       </c>
       <c r="K21">
-        <v>0.9902601951261685</v>
+        <v>1.009876355522</v>
       </c>
       <c r="L21">
-        <v>0.9745169087906111</v>
-      </c>
-      <c r="M21">
-        <v>0.9088115497154091</v>
+        <v>0.9964882873298526</v>
       </c>
       <c r="N21">
-        <v>0.9776144055778685</v>
+        <v>1.001289416639911</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9369155062228152</v>
+        <v>0.9639133226420082</v>
       </c>
       <c r="D22">
-        <v>0.9692922221231495</v>
+        <v>0.9909321045271909</v>
       </c>
       <c r="E22">
-        <v>0.9526797791150858</v>
-      </c>
-      <c r="F22">
-        <v>0.8769407003662261</v>
+        <v>0.9770396723422827</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017407578744834</v>
+        <v>1.032482422969576</v>
       </c>
       <c r="J22">
-        <v>0.9706978854561019</v>
+        <v>0.9963233698770809</v>
       </c>
       <c r="K22">
-        <v>0.9854975782605041</v>
+        <v>1.006685364223376</v>
       </c>
       <c r="L22">
-        <v>0.969250788111339</v>
-      </c>
-      <c r="M22">
-        <v>0.8954195225412873</v>
+        <v>0.9930801249345214</v>
       </c>
       <c r="N22">
-        <v>0.9720763877940534</v>
+        <v>0.9977382633421944</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9408147719643052</v>
+        <v>0.9666352556773948</v>
       </c>
       <c r="D23">
-        <v>0.9722340870540954</v>
+        <v>0.9929922579688286</v>
       </c>
       <c r="E23">
-        <v>0.9559072197079842</v>
-      </c>
-      <c r="F23">
-        <v>0.8847640915634003</v>
+        <v>0.9792258464362986</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01907643075385</v>
+        <v>1.033436088493532</v>
       </c>
       <c r="J23">
-        <v>0.9736605779560642</v>
+        <v>0.998214932212785</v>
       </c>
       <c r="K23">
-        <v>0.9880503121639224</v>
+        <v>1.008387766076119</v>
       </c>
       <c r="L23">
-        <v>0.9720714096808261</v>
-      </c>
-      <c r="M23">
-        <v>0.9026488461139266</v>
+        <v>0.994897738634264</v>
       </c>
       <c r="N23">
-        <v>0.9750432876571911</v>
+        <v>0.9996325119133802</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9553505094615091</v>
+        <v>0.9769978490730197</v>
       </c>
       <c r="D24">
-        <v>0.9831939510148019</v>
+        <v>1.000845926606092</v>
       </c>
       <c r="E24">
-        <v>0.9679629247239877</v>
-      </c>
-      <c r="F24">
-        <v>0.9127581170957627</v>
+        <v>0.9875713126872837</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025184598039285</v>
+        <v>1.037038042257234</v>
       </c>
       <c r="J24">
-        <v>0.9846826629867157</v>
+        <v>1.005411032226593</v>
       </c>
       <c r="K24">
-        <v>0.9975227707276326</v>
+        <v>1.014858203093067</v>
       </c>
       <c r="L24">
-        <v>0.9825770172384334</v>
-      </c>
-      <c r="M24">
-        <v>0.9285125526066824</v>
+        <v>1.001820263071511</v>
       </c>
       <c r="N24">
-        <v>0.9860810253128369</v>
+        <v>1.006838831214612</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.970836293076195</v>
+        <v>0.9883671308254647</v>
       </c>
       <c r="D25">
-        <v>0.9948626094765264</v>
+        <v>1.009478532084952</v>
       </c>
       <c r="E25">
-        <v>0.9808488091320574</v>
-      </c>
-      <c r="F25">
-        <v>0.9409484186061546</v>
+        <v>0.9967687130100548</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031508686153433</v>
+        <v>1.040928350360951</v>
       </c>
       <c r="J25">
-        <v>0.9963866339505649</v>
+        <v>1.013292431253811</v>
       </c>
       <c r="K25">
-        <v>1.007541203784031</v>
+        <v>1.021931466645957</v>
       </c>
       <c r="L25">
-        <v>0.9937518806324673</v>
-      </c>
-      <c r="M25">
-        <v>0.9545382634450137</v>
+        <v>1.009417398508391</v>
       </c>
       <c r="N25">
-        <v>0.9978016172579192</v>
+        <v>1.014731422732458</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
@@ -421,31 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9969720439801927</v>
+        <v>0.9866195859308753</v>
       </c>
       <c r="D2">
-        <v>1.016020250039989</v>
+        <v>1.007133346977383</v>
       </c>
       <c r="E2">
-        <v>1.003758794911748</v>
+        <v>0.9949632556365556</v>
+      </c>
+      <c r="F2">
+        <v>0.9632536133198543</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043820631939984</v>
+        <v>1.037943943954125</v>
       </c>
       <c r="J2">
-        <v>1.019243699420049</v>
+        <v>1.009208003419766</v>
       </c>
       <c r="K2">
-        <v>1.027260819404649</v>
+        <v>1.018494189509351</v>
       </c>
       <c r="L2">
-        <v>1.015166010963719</v>
+        <v>1.006493209186803</v>
+      </c>
+      <c r="M2">
+        <v>0.9752497855440988</v>
       </c>
       <c r="N2">
-        <v>1.020691142382112</v>
+        <v>1.007153538892834</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002979574586243</v>
+        <v>0.9905606630687627</v>
       </c>
       <c r="D3">
-        <v>1.02058996965105</v>
+        <v>1.010050210243546</v>
       </c>
       <c r="E3">
-        <v>1.008653981255933</v>
+        <v>0.9980488381944659</v>
+      </c>
+      <c r="F3">
+        <v>0.9747681896268597</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045808386367156</v>
+        <v>1.039466117983862</v>
       </c>
       <c r="J3">
-        <v>1.023389341648458</v>
+        <v>1.011312003915673</v>
       </c>
       <c r="K3">
-        <v>1.0309660056121</v>
+        <v>1.020556091716568</v>
       </c>
       <c r="L3">
-        <v>1.019177317421517</v>
+        <v>1.008706745527756</v>
+      </c>
+      <c r="M3">
+        <v>0.9857344311942743</v>
       </c>
       <c r="N3">
-        <v>1.024842671897997</v>
+        <v>1.00785447963096</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -491,31 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00676388240697</v>
+        <v>0.9930567517737678</v>
       </c>
       <c r="D4">
-        <v>1.023469152523006</v>
+        <v>1.011893794115902</v>
       </c>
       <c r="E4">
-        <v>1.01174405961362</v>
+        <v>1.000008870829032</v>
+      </c>
+      <c r="F4">
+        <v>0.9818875588056307</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047045522954807</v>
+        <v>1.040403036107986</v>
       </c>
       <c r="J4">
-        <v>1.025996135759495</v>
+        <v>1.012639749719277</v>
       </c>
       <c r="K4">
-        <v>1.033292342580717</v>
+        <v>1.021850760005973</v>
       </c>
       <c r="L4">
-        <v>1.021702780790161</v>
+        <v>1.010107188788852</v>
+      </c>
+      <c r="M4">
+        <v>0.9922096149161589</v>
       </c>
       <c r="N4">
-        <v>1.027453167955675</v>
+        <v>1.008296750696959</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008331286231253</v>
+        <v>0.9940937012426523</v>
       </c>
       <c r="D5">
-        <v>1.024661722823171</v>
+        <v>1.012658810059692</v>
       </c>
       <c r="E5">
-        <v>1.013025407703204</v>
+        <v>1.000824485790365</v>
+      </c>
+      <c r="F5">
+        <v>0.9848079067688243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047554261945452</v>
+        <v>1.04078599414617</v>
       </c>
       <c r="J5">
-        <v>1.02707465827016</v>
+        <v>1.013190202190767</v>
       </c>
       <c r="K5">
-        <v>1.034253968369803</v>
+        <v>1.022385987442886</v>
       </c>
       <c r="L5">
-        <v>1.022748405563393</v>
+        <v>1.010688619500664</v>
+      </c>
+      <c r="M5">
+        <v>0.9948639105870667</v>
       </c>
       <c r="N5">
-        <v>1.028533222092013</v>
+        <v>1.008480088530936</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008593112492113</v>
+        <v>0.994267096828941</v>
       </c>
       <c r="D6">
-        <v>1.024860936034635</v>
+        <v>1.012786684243757</v>
       </c>
       <c r="E6">
-        <v>1.013239535268079</v>
+        <v>1.000960949618601</v>
+      </c>
+      <c r="F6">
+        <v>0.9852941641099969</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047639026680877</v>
+        <v>1.040849669404395</v>
       </c>
       <c r="J6">
-        <v>1.02725474906003</v>
+        <v>1.013282181234813</v>
       </c>
       <c r="K6">
-        <v>1.034414488506703</v>
+        <v>1.022475334820306</v>
       </c>
       <c r="L6">
-        <v>1.022923047285994</v>
+        <v>1.010785823820712</v>
+      </c>
+      <c r="M6">
+        <v>0.9953057609961649</v>
       </c>
       <c r="N6">
-        <v>1.028713568631462</v>
+        <v>1.008510722670403</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006784917109103</v>
+        <v>0.9930706556163705</v>
       </c>
       <c r="D7">
-        <v>1.023485156815522</v>
+        <v>1.011904055115086</v>
       </c>
       <c r="E7">
-        <v>1.011761249639392</v>
+        <v>1.000019801592898</v>
+      </c>
+      <c r="F7">
+        <v>0.9819268578895203</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047052364857468</v>
+        <v>1.040408195420838</v>
       </c>
       <c r="J7">
-        <v>1.026010614339268</v>
+        <v>1.012647134857327</v>
       </c>
       <c r="K7">
-        <v>1.033305255325299</v>
+        <v>1.021857946795889</v>
       </c>
       <c r="L7">
-        <v>1.021716814762921</v>
+        <v>1.010114986247846</v>
+      </c>
+      <c r="M7">
+        <v>0.9922453409648002</v>
       </c>
       <c r="N7">
-        <v>1.027467667096692</v>
+        <v>1.00829921051848</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9990243433876232</v>
+        <v>0.9879630191154724</v>
       </c>
       <c r="D8">
-        <v>1.01758118394991</v>
+        <v>1.008128483740034</v>
       </c>
       <c r="E8">
-        <v>1.005429689206703</v>
+        <v>0.9960138410079833</v>
+      </c>
+      <c r="F8">
+        <v>0.9672179587582043</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044502810570781</v>
+        <v>1.038468686108653</v>
       </c>
       <c r="J8">
-        <v>1.020660885272443</v>
+        <v>1.009926245269273</v>
       </c>
       <c r="K8">
-        <v>1.028528158823236</v>
+        <v>1.019199463875522</v>
       </c>
       <c r="L8">
-        <v>1.016536610806337</v>
+        <v>1.007248079464886</v>
+      </c>
+      <c r="M8">
+        <v>0.9788610885136448</v>
       </c>
       <c r="N8">
-        <v>1.022110340800969</v>
+        <v>1.007392830563701</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9845053584003062</v>
+        <v>0.9785220553417319</v>
       </c>
       <c r="D9">
-        <v>1.006544733326303</v>
+        <v>1.001115880765439</v>
       </c>
       <c r="E9">
-        <v>0.993639800564328</v>
+        <v>0.988656451648301</v>
+      </c>
+      <c r="F9">
+        <v>0.9383995390217645</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039615031889188</v>
+        <v>1.034652497810199</v>
       </c>
       <c r="J9">
-        <v>1.010617392689749</v>
+        <v>1.004856738379575</v>
       </c>
       <c r="K9">
-        <v>1.019532511790138</v>
+        <v>1.014190879489399</v>
       </c>
       <c r="L9">
-        <v>1.006836917362193</v>
+        <v>1.001936290763828</v>
+      </c>
+      <c r="M9">
+        <v>0.9525779068743626</v>
       </c>
       <c r="N9">
-        <v>1.012052585306803</v>
+        <v>1.005703690390586</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9741736663215302</v>
+        <v>0.9718891383877712</v>
       </c>
       <c r="D10">
-        <v>0.9987039760538986</v>
+        <v>0.9961592061916773</v>
       </c>
       <c r="E10">
-        <v>0.985293329287051</v>
+        <v>0.9835209861383694</v>
+      </c>
+      <c r="F10">
+        <v>0.9165997083304961</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036061201251834</v>
+        <v>1.03178741076921</v>
       </c>
       <c r="J10">
-        <v>1.003450798445839</v>
+        <v>1.001264235026367</v>
       </c>
       <c r="K10">
-        <v>1.013096670107333</v>
+        <v>1.010598155363952</v>
       </c>
       <c r="L10">
-        <v>0.9999332930371597</v>
+        <v>0.9981942880511246</v>
+      </c>
+      <c r="M10">
+        <v>0.9326578504321283</v>
       </c>
       <c r="N10">
-        <v>1.004875813677047</v>
+        <v>1.004506592586958</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9695236287290713</v>
+        <v>0.9689249977842768</v>
       </c>
       <c r="D11">
-        <v>0.9951797026446625</v>
+        <v>0.9939346332405971</v>
       </c>
       <c r="E11">
-        <v>0.9815483945697727</v>
+        <v>0.9812342827492538</v>
+      </c>
+      <c r="F11">
+        <v>0.9063485995630092</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03444480620207</v>
+        <v>1.030454644063381</v>
       </c>
       <c r="J11">
-        <v>1.000221615910715</v>
+        <v>0.999650215028299</v>
       </c>
       <c r="K11">
-        <v>1.01019309885221</v>
+        <v>1.008971847194895</v>
       </c>
       <c r="L11">
-        <v>0.9968268768789605</v>
+        <v>0.9965189876280977</v>
+      </c>
+      <c r="M11">
+        <v>0.9232827285465758</v>
       </c>
       <c r="N11">
-        <v>1.001642045332331</v>
+        <v>1.003968790826391</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -771,31 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9677678361721654</v>
+        <v>0.9678089464518483</v>
       </c>
       <c r="D12">
-        <v>0.9938498345165993</v>
+        <v>0.9930953094800895</v>
       </c>
       <c r="E12">
-        <v>0.9801362267129025</v>
+        <v>0.9803745524073932</v>
+      </c>
+      <c r="F12">
+        <v>0.9023960698839864</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033832034645314</v>
+        <v>1.029943931418276</v>
       </c>
       <c r="J12">
-        <v>0.9990018587779558</v>
+        <v>0.999041058272783</v>
       </c>
       <c r="K12">
-        <v>1.009095818196299</v>
+        <v>1.008355998880511</v>
       </c>
       <c r="L12">
-        <v>0.9956541432555186</v>
+        <v>0.9958876575532728</v>
+      </c>
+      <c r="M12">
+        <v>0.9196668872790615</v>
       </c>
       <c r="N12">
-        <v>1.000420556004535</v>
+        <v>1.003765823903153</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9681457877091503</v>
+        <v>0.96804904573235</v>
       </c>
       <c r="D13">
-        <v>0.9941360606789232</v>
+        <v>0.9932759598383921</v>
       </c>
       <c r="E13">
-        <v>0.9804401231009769</v>
+        <v>0.9805594518800412</v>
+      </c>
+      <c r="F13">
+        <v>0.9032508943219868</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033964048348104</v>
+        <v>1.030054224461609</v>
       </c>
       <c r="J13">
-        <v>0.9992644426871958</v>
+        <v>0.9991721765271082</v>
       </c>
       <c r="K13">
-        <v>1.009332058678838</v>
+        <v>1.008488654492506</v>
       </c>
       <c r="L13">
-        <v>0.9959065746058756</v>
+        <v>0.996023504057566</v>
+      </c>
+      <c r="M13">
+        <v>0.9204489407428972</v>
       </c>
       <c r="N13">
-        <v>1.000683512813045</v>
+        <v>1.003809511181956</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9693790897506408</v>
+        <v>0.9688330592256553</v>
       </c>
       <c r="D14">
-        <v>0.9950702081029336</v>
+        <v>0.9938655283778629</v>
       </c>
       <c r="E14">
-        <v>0.9814321044808931</v>
+        <v>0.9811634339980502</v>
+      </c>
+      <c r="F14">
+        <v>0.9060249923965228</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034394411080198</v>
+        <v>1.030412760214226</v>
       </c>
       <c r="J14">
-        <v>1.000121212814</v>
+        <v>0.9996000642110423</v>
       </c>
       <c r="K14">
-        <v>1.010102787568449</v>
+        <v>1.008921188676606</v>
       </c>
       <c r="L14">
-        <v>0.9967303312099699</v>
+        <v>0.9964669914641456</v>
+      </c>
+      <c r="M14">
+        <v>0.9229867078473142</v>
       </c>
       <c r="N14">
-        <v>1.001541499651702</v>
+        <v>1.003952080722111</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9701351176007353</v>
+        <v>0.9693140830651168</v>
       </c>
       <c r="D15">
-        <v>0.995642967514745</v>
+        <v>0.9942270133579749</v>
       </c>
       <c r="E15">
-        <v>0.9820404500947444</v>
+        <v>0.9815341667928124</v>
+      </c>
+      <c r="F15">
+        <v>0.9077142206553115</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034657909838493</v>
+        <v>1.030631527616912</v>
       </c>
       <c r="J15">
-        <v>1.000646364653786</v>
+        <v>0.999862393864676</v>
       </c>
       <c r="K15">
-        <v>1.010575134032522</v>
+        <v>1.009186088962271</v>
       </c>
       <c r="L15">
-        <v>0.9972353335632239</v>
+        <v>0.9967390131062686</v>
+      </c>
+      <c r="M15">
+        <v>0.9245318926843272</v>
       </c>
       <c r="N15">
-        <v>1.002067397267337</v>
+        <v>1.004039488541692</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9744783870037029</v>
+        <v>0.972083821265893</v>
       </c>
       <c r="D16">
-        <v>0.9989350335365805</v>
+        <v>0.9963050934616429</v>
       </c>
       <c r="E16">
-        <v>0.9855389889464893</v>
+        <v>0.9836713484084192</v>
+      </c>
+      <c r="F16">
+        <v>0.9172611305630523</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036166782316887</v>
+        <v>1.031873775842995</v>
       </c>
       <c r="J16">
-        <v>1.003662340649629</v>
+        <v>1.001370051930584</v>
       </c>
       <c r="K16">
-        <v>1.013286808568444</v>
+        <v>1.010704507630777</v>
       </c>
       <c r="L16">
-        <v>1.000136882226722</v>
+        <v>0.9983042502432047</v>
+      </c>
+      <c r="M16">
+        <v>0.9332626002375426</v>
       </c>
       <c r="N16">
-        <v>1.005087656295031</v>
+        <v>1.004541852305081</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.977154199160756</v>
+        <v>0.9737957763447279</v>
       </c>
       <c r="D17">
-        <v>1.000964538672443</v>
+        <v>0.9975868553556215</v>
       </c>
       <c r="E17">
-        <v>0.9876975021309152</v>
+        <v>0.9849945078533828</v>
+      </c>
+      <c r="F17">
+        <v>0.9230180986458237</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037092008348478</v>
+        <v>1.032627188627299</v>
       </c>
       <c r="J17">
-        <v>1.005519528520769</v>
+        <v>1.002299570098713</v>
       </c>
       <c r="K17">
-        <v>1.014955677141553</v>
+        <v>1.011637328449028</v>
       </c>
       <c r="L17">
-        <v>1.001924732879822</v>
+        <v>0.9992708545432333</v>
+      </c>
+      <c r="M17">
+        <v>0.9385254289973841</v>
       </c>
       <c r="N17">
-        <v>1.00694748158597</v>
+        <v>1.00485158431153</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.978698090871065</v>
+        <v>0.9747855418746878</v>
       </c>
       <c r="D18">
-        <v>1.002135952279446</v>
+        <v>0.9983270282819051</v>
       </c>
       <c r="E18">
-        <v>0.98894400756176</v>
+        <v>0.9857602720726695</v>
+      </c>
+      <c r="F18">
+        <v>0.9262995570116763</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037624245537673</v>
+        <v>1.033057892904696</v>
       </c>
       <c r="J18">
-        <v>1.006590736947011</v>
+        <v>1.002836169905131</v>
       </c>
       <c r="K18">
-        <v>1.015917917979619</v>
+        <v>1.012174702017434</v>
       </c>
       <c r="L18">
-        <v>1.002956350405107</v>
+        <v>0.9998294136934154</v>
+      </c>
+      <c r="M18">
+        <v>0.9415244900178005</v>
       </c>
       <c r="N18">
-        <v>1.008020211251047</v>
+        <v>1.005030390842429</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9792217168792042</v>
+        <v>0.9751215687583954</v>
       </c>
       <c r="D19">
-        <v>1.002533317091358</v>
+        <v>0.9985781768615322</v>
       </c>
       <c r="E19">
-        <v>0.9893669526069494</v>
+        <v>0.986020382014305</v>
+      </c>
+      <c r="F19">
+        <v>0.9274060721894304</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037804484764154</v>
+        <v>1.033203315790517</v>
       </c>
       <c r="J19">
-        <v>1.006953985312023</v>
+        <v>1.003018214493325</v>
       </c>
       <c r="K19">
-        <v>1.016244155503599</v>
+        <v>1.012356822562007</v>
       </c>
       <c r="L19">
-        <v>1.003306241414311</v>
+        <v>1.000018999600109</v>
+      </c>
+      <c r="M19">
+        <v>0.9425356515980636</v>
       </c>
       <c r="N19">
-        <v>1.008383975470402</v>
+        <v>1.005091052196488</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9768688684395231</v>
+        <v>0.9736130168672801</v>
       </c>
       <c r="D20">
-        <v>1.000748080270885</v>
+        <v>0.9974501139150309</v>
       </c>
       <c r="E20">
-        <v>0.9874672191364529</v>
+        <v>0.9848531730426114</v>
+      </c>
+      <c r="F20">
+        <v>0.922408486785934</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036993513978911</v>
+        <v>1.032547271115196</v>
       </c>
       <c r="J20">
-        <v>1.005321526454359</v>
+        <v>1.002200423581036</v>
       </c>
       <c r="K20">
-        <v>1.01477778833111</v>
+        <v>1.011537948671772</v>
       </c>
       <c r="L20">
-        <v>1.001734081291437</v>
+        <v>0.9991676947017495</v>
+      </c>
+      <c r="M20">
+        <v>0.9379682184440861</v>
       </c>
       <c r="N20">
-        <v>1.006749198333915</v>
+        <v>1.004818546697502</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9690167191830484</v>
+        <v>0.9686026127917922</v>
       </c>
       <c r="D21">
-        <v>0.9947957109149524</v>
+        <v>0.9936922860916606</v>
       </c>
       <c r="E21">
-        <v>0.9811405866320689</v>
+        <v>0.9809858699432273</v>
+      </c>
+      <c r="F21">
+        <v>0.9052123041673011</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034268027602226</v>
+        <v>1.030307629845396</v>
       </c>
       <c r="J21">
-        <v>0.9998694872813383</v>
+        <v>0.9994743358762518</v>
       </c>
       <c r="K21">
-        <v>1.009876355522</v>
+        <v>1.00879415360878</v>
       </c>
       <c r="L21">
-        <v>0.9964882873298526</v>
+        <v>0.9963366524761662</v>
+      </c>
+      <c r="M21">
+        <v>0.9222432821000091</v>
       </c>
       <c r="N21">
-        <v>1.001289416639911</v>
+        <v>1.003910188556973</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9639133226420082</v>
+        <v>0.9653645817045767</v>
       </c>
       <c r="D22">
-        <v>0.9909321045271909</v>
+        <v>0.9912534043410569</v>
       </c>
       <c r="E22">
-        <v>0.9770396723422827</v>
+        <v>0.9784938924110693</v>
+      </c>
+      <c r="F22">
+        <v>0.8935457746857761</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032482422969576</v>
+        <v>1.028807547855002</v>
       </c>
       <c r="J22">
-        <v>0.9963233698770809</v>
+        <v>0.9977039904953572</v>
       </c>
       <c r="K22">
-        <v>1.006685364223376</v>
+        <v>1.007000147391237</v>
       </c>
       <c r="L22">
-        <v>0.9930801249345214</v>
+        <v>0.9945037770340538</v>
+      </c>
+      <c r="M22">
+        <v>0.9115686796515876</v>
       </c>
       <c r="N22">
-        <v>0.9977382633421944</v>
+        <v>1.003320342218477</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1156,31 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9666352556773948</v>
+        <v>0.9670899148088214</v>
       </c>
       <c r="D23">
-        <v>0.9929922579688286</v>
+        <v>0.9925540274881021</v>
       </c>
       <c r="E23">
-        <v>0.9792258464362986</v>
+        <v>0.9798210132827107</v>
+      </c>
+      <c r="F23">
+        <v>0.8998209592201283</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033436088493532</v>
+        <v>1.029612231280818</v>
       </c>
       <c r="J23">
-        <v>0.998214932212785</v>
+        <v>0.9986481668996061</v>
       </c>
       <c r="K23">
-        <v>1.008387766076119</v>
+        <v>1.007958178660305</v>
       </c>
       <c r="L23">
-        <v>0.994897738634264</v>
+        <v>0.9954807447032449</v>
+      </c>
+      <c r="M23">
+        <v>0.9173108506742637</v>
       </c>
       <c r="N23">
-        <v>0.9996325119133802</v>
+        <v>1.003634918016529</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9769978490730197</v>
+        <v>0.973695625081156</v>
       </c>
       <c r="D24">
-        <v>1.000845926606092</v>
+        <v>0.9975119244401562</v>
       </c>
       <c r="E24">
-        <v>0.9875713126872837</v>
+        <v>0.9849170546763789</v>
+      </c>
+      <c r="F24">
+        <v>0.9226841788459719</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037038042257234</v>
+        <v>1.032583409303095</v>
       </c>
       <c r="J24">
-        <v>1.005411032226593</v>
+        <v>1.002245240783085</v>
       </c>
       <c r="K24">
-        <v>1.014858203093067</v>
+        <v>1.011582874814288</v>
       </c>
       <c r="L24">
-        <v>1.001820263071511</v>
+        <v>0.9992143243447542</v>
+      </c>
+      <c r="M24">
+        <v>0.9382202147496348</v>
       </c>
       <c r="N24">
-        <v>1.006838831214612</v>
+        <v>1.004833480685092</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9883671308254647</v>
+        <v>0.9810190436823416</v>
       </c>
       <c r="D25">
-        <v>1.009478532084952</v>
+        <v>1.002975118829285</v>
       </c>
       <c r="E25">
-        <v>0.9967687130100548</v>
+        <v>0.9905966944891775</v>
+      </c>
+      <c r="F25">
+        <v>0.9462508146632244</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040928350360951</v>
+        <v>1.035691125286855</v>
       </c>
       <c r="J25">
-        <v>1.013292431253811</v>
+        <v>1.006202523762656</v>
       </c>
       <c r="K25">
-        <v>1.021931466645957</v>
+        <v>1.015527424806627</v>
       </c>
       <c r="L25">
-        <v>1.009417398508391</v>
+        <v>1.003342759912813</v>
+      </c>
+      <c r="M25">
+        <v>0.9597450597393299</v>
       </c>
       <c r="N25">
-        <v>1.014731422732458</v>
+        <v>1.006152129621634</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9866195859308753</v>
+        <v>1.014512034968396</v>
       </c>
       <c r="D2">
-        <v>1.007133346977383</v>
+        <v>1.021177064778995</v>
       </c>
       <c r="E2">
-        <v>0.9949632556365556</v>
+        <v>1.016294683959863</v>
       </c>
       <c r="F2">
-        <v>0.9632536133198543</v>
+        <v>1.031283731953605</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037943943954125</v>
+        <v>1.027766502017877</v>
       </c>
       <c r="J2">
-        <v>1.009208003419766</v>
+        <v>1.019742848219908</v>
       </c>
       <c r="K2">
-        <v>1.018494189509351</v>
+        <v>1.02401516598659</v>
       </c>
       <c r="L2">
-        <v>1.006493209186803</v>
+        <v>1.019147283095312</v>
       </c>
       <c r="M2">
-        <v>0.9752497855440988</v>
+        <v>1.034092296332529</v>
       </c>
       <c r="N2">
-        <v>1.007153538892834</v>
+        <v>1.010712616546928</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9905606630687627</v>
+        <v>1.015326662713061</v>
       </c>
       <c r="D3">
-        <v>1.010050210243546</v>
+        <v>1.021776733406373</v>
       </c>
       <c r="E3">
-        <v>0.9980488381944659</v>
+        <v>1.016981371684578</v>
       </c>
       <c r="F3">
-        <v>0.9747681896268597</v>
+        <v>1.033422418599152</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039466117983862</v>
+        <v>1.027965599844443</v>
       </c>
       <c r="J3">
-        <v>1.011312003915673</v>
+        <v>1.020192798088301</v>
       </c>
       <c r="K3">
-        <v>1.020556091716568</v>
+        <v>1.024421798266569</v>
       </c>
       <c r="L3">
-        <v>1.008706745527756</v>
+        <v>1.019639647717781</v>
       </c>
       <c r="M3">
-        <v>0.9857344311942743</v>
+        <v>1.036035951952894</v>
       </c>
       <c r="N3">
-        <v>1.00785447963096</v>
+        <v>1.010861858397674</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9930567517737678</v>
+        <v>1.015854092513613</v>
       </c>
       <c r="D4">
-        <v>1.011893794115902</v>
+        <v>1.022164534302676</v>
       </c>
       <c r="E4">
-        <v>1.000008870829032</v>
+        <v>1.017426382930528</v>
       </c>
       <c r="F4">
-        <v>0.9818875588056307</v>
+        <v>1.034800158363715</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040403036107986</v>
+        <v>1.028092216435254</v>
       </c>
       <c r="J4">
-        <v>1.012639749719277</v>
+        <v>1.020483623871425</v>
       </c>
       <c r="K4">
-        <v>1.021850760005973</v>
+        <v>1.024683998471922</v>
       </c>
       <c r="L4">
-        <v>1.010107188788852</v>
+        <v>1.01995824403462</v>
       </c>
       <c r="M4">
-        <v>0.9922096149161589</v>
+        <v>1.03728716112979</v>
       </c>
       <c r="N4">
-        <v>1.008296750696959</v>
+        <v>1.010958295728616</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9940937012426523</v>
+        <v>1.016075897741842</v>
       </c>
       <c r="D5">
-        <v>1.012658810059692</v>
+        <v>1.022327511446471</v>
       </c>
       <c r="E5">
-        <v>1.000824485790365</v>
+        <v>1.017613626996436</v>
       </c>
       <c r="F5">
-        <v>0.9848079067688243</v>
+        <v>1.035377923542909</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04078599414617</v>
+        <v>1.028144917641023</v>
       </c>
       <c r="J5">
-        <v>1.013190202190767</v>
+        <v>1.020605809545839</v>
       </c>
       <c r="K5">
-        <v>1.022385987442886</v>
+        <v>1.024794007566554</v>
       </c>
       <c r="L5">
-        <v>1.010688619500664</v>
+        <v>1.020092182130013</v>
       </c>
       <c r="M5">
-        <v>0.9948639105870667</v>
+        <v>1.037811651029759</v>
       </c>
       <c r="N5">
-        <v>1.008480088530936</v>
+        <v>1.010998806180983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.994267096828941</v>
+        <v>1.016113144117508</v>
       </c>
       <c r="D6">
-        <v>1.012786684243757</v>
+        <v>1.022354872822661</v>
       </c>
       <c r="E6">
-        <v>1.000960949618601</v>
+        <v>1.017645075528643</v>
       </c>
       <c r="F6">
-        <v>0.9852941641099969</v>
+        <v>1.035474849528767</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040849669404395</v>
+        <v>1.028153735458901</v>
       </c>
       <c r="J6">
-        <v>1.013282181234813</v>
+        <v>1.020626320501666</v>
       </c>
       <c r="K6">
-        <v>1.022475334820306</v>
+        <v>1.024812465681284</v>
       </c>
       <c r="L6">
-        <v>1.010785823820712</v>
+        <v>1.020114670918905</v>
       </c>
       <c r="M6">
-        <v>0.9953057609961649</v>
+        <v>1.037899626999657</v>
       </c>
       <c r="N6">
-        <v>1.008510722670403</v>
+        <v>1.011005606194265</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9930706556163705</v>
+        <v>1.015857055997164</v>
       </c>
       <c r="D7">
-        <v>1.011904055115086</v>
+        <v>1.022166712225558</v>
       </c>
       <c r="E7">
-        <v>1.000019801592898</v>
+        <v>1.017428884262332</v>
       </c>
       <c r="F7">
-        <v>0.9819268578895203</v>
+        <v>1.034807884096706</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040408195420838</v>
+        <v>1.028092922705981</v>
       </c>
       <c r="J7">
-        <v>1.012647134857327</v>
+        <v>1.020485256827428</v>
       </c>
       <c r="K7">
-        <v>1.021857946795889</v>
+        <v>1.024685469282942</v>
       </c>
       <c r="L7">
-        <v>1.010114986247846</v>
+        <v>1.019960033722034</v>
       </c>
       <c r="M7">
-        <v>0.9922453409648002</v>
+        <v>1.037294175320128</v>
       </c>
       <c r="N7">
-        <v>1.00829921051848</v>
+        <v>1.010958837156449</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9879630191154724</v>
+        <v>1.014787277347958</v>
       </c>
       <c r="D8">
-        <v>1.008128483740034</v>
+        <v>1.021379771834255</v>
       </c>
       <c r="E8">
-        <v>0.9960138410079833</v>
+        <v>1.016526612195561</v>
       </c>
       <c r="F8">
-        <v>0.9672179587582043</v>
+        <v>1.032007800349722</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038468686108653</v>
+        <v>1.027834247129552</v>
       </c>
       <c r="J8">
-        <v>1.009926245269273</v>
+        <v>1.019894977277455</v>
       </c>
       <c r="K8">
-        <v>1.019199463875522</v>
+        <v>1.024152779319888</v>
       </c>
       <c r="L8">
-        <v>1.007248079464886</v>
+        <v>1.01931367892998</v>
       </c>
       <c r="M8">
-        <v>0.9788610885136448</v>
+        <v>1.034750520574146</v>
       </c>
       <c r="N8">
-        <v>1.007392830563701</v>
+        <v>1.010763080786148</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9785220553417319</v>
+        <v>1.012904606186874</v>
       </c>
       <c r="D9">
-        <v>1.001115880765439</v>
+        <v>1.019991382367843</v>
       </c>
       <c r="E9">
-        <v>0.988656451648301</v>
+        <v>1.014941935043466</v>
       </c>
       <c r="F9">
-        <v>0.9383995390217645</v>
+        <v>1.027025279498114</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034652497810199</v>
+        <v>1.027361414288277</v>
       </c>
       <c r="J9">
-        <v>1.004856738379575</v>
+        <v>1.018852381953921</v>
       </c>
       <c r="K9">
-        <v>1.014190879489399</v>
+        <v>1.023207082186721</v>
       </c>
       <c r="L9">
-        <v>1.001936290763828</v>
+        <v>1.018174772684577</v>
       </c>
       <c r="M9">
-        <v>0.9525779068743626</v>
+        <v>1.030217414626375</v>
       </c>
       <c r="N9">
-        <v>1.005703690390586</v>
+        <v>1.01041712826801</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9718891383877712</v>
+        <v>1.011651156602935</v>
       </c>
       <c r="D10">
-        <v>0.9961592061916773</v>
+        <v>1.019064671911036</v>
       </c>
       <c r="E10">
-        <v>0.9835209861383694</v>
+        <v>1.013889067531121</v>
       </c>
       <c r="F10">
-        <v>0.9165997083304961</v>
+        <v>1.023669013439052</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03178741076921</v>
+        <v>1.027034659970807</v>
       </c>
       <c r="J10">
-        <v>1.001264235026367</v>
+        <v>1.018155694354099</v>
       </c>
       <c r="K10">
-        <v>1.010598155363952</v>
+        <v>1.022571890073787</v>
       </c>
       <c r="L10">
-        <v>0.9981942880511246</v>
+        <v>1.017415571719395</v>
       </c>
       <c r="M10">
-        <v>0.9326578504321283</v>
+        <v>1.027159255547844</v>
       </c>
       <c r="N10">
-        <v>1.004506592586958</v>
+        <v>1.010185826486894</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9689249977842768</v>
+        <v>1.011108801481807</v>
       </c>
       <c r="D11">
-        <v>0.9939346332405971</v>
+        <v>1.018663135152744</v>
       </c>
       <c r="E11">
-        <v>0.9812342827492538</v>
+        <v>1.013434026273994</v>
       </c>
       <c r="F11">
-        <v>0.9063485995630092</v>
+        <v>1.022207051683667</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030454644063381</v>
+        <v>1.026890414504994</v>
       </c>
       <c r="J11">
-        <v>0.999650215028299</v>
+        <v>1.017853639424553</v>
       </c>
       <c r="K11">
-        <v>1.008971847194895</v>
+        <v>1.022295722129152</v>
       </c>
       <c r="L11">
-        <v>0.9965189876280977</v>
+        <v>1.017086852341003</v>
       </c>
       <c r="M11">
-        <v>0.9232827285465758</v>
+        <v>1.025826052621497</v>
       </c>
       <c r="N11">
-        <v>1.003968790826391</v>
+        <v>1.010085513700901</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9678089464518483</v>
+        <v>1.010907406777564</v>
       </c>
       <c r="D12">
-        <v>0.9930953094800895</v>
+        <v>1.018513946926391</v>
       </c>
       <c r="E12">
-        <v>0.9803745524073932</v>
+        <v>1.013265133401175</v>
       </c>
       <c r="F12">
-        <v>0.9023960698839864</v>
+        <v>1.02166267061376</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029943931418276</v>
+        <v>1.026836418857501</v>
       </c>
       <c r="J12">
-        <v>0.999041058272783</v>
+        <v>1.017741385209296</v>
       </c>
       <c r="K12">
-        <v>1.008355998880511</v>
+        <v>1.022192971709643</v>
       </c>
       <c r="L12">
-        <v>0.9958876575532728</v>
+        <v>1.016964754733784</v>
       </c>
       <c r="M12">
-        <v>0.9196668872790615</v>
+        <v>1.02532945245152</v>
       </c>
       <c r="N12">
-        <v>1.003765823903153</v>
+        <v>1.010048229491235</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.96804904573235</v>
+        <v>1.010950603895907</v>
       </c>
       <c r="D13">
-        <v>0.9932759598383921</v>
+        <v>1.018545950096052</v>
       </c>
       <c r="E13">
-        <v>0.9805594518800412</v>
+        <v>1.01330135561171</v>
       </c>
       <c r="F13">
-        <v>0.9032508943219868</v>
+        <v>1.021779503639353</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030054224461609</v>
+        <v>1.02684801998547</v>
       </c>
       <c r="J13">
-        <v>0.9991721765271082</v>
+        <v>1.017765466721252</v>
       </c>
       <c r="K13">
-        <v>1.008488654492506</v>
+        <v>1.022215019691094</v>
       </c>
       <c r="L13">
-        <v>0.996023504057566</v>
+        <v>1.016990944923807</v>
       </c>
       <c r="M13">
-        <v>0.9204489407428972</v>
+        <v>1.02543603834286</v>
       </c>
       <c r="N13">
-        <v>1.003809511181956</v>
+        <v>1.010056228146025</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9688330592256553</v>
+        <v>1.011092152903057</v>
       </c>
       <c r="D14">
-        <v>0.9938655283778629</v>
+        <v>1.018650804014031</v>
       </c>
       <c r="E14">
-        <v>0.9811634339980502</v>
+        <v>1.013420062885219</v>
       </c>
       <c r="F14">
-        <v>0.9060249923965228</v>
+        <v>1.022162080612304</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030412760214226</v>
+        <v>1.026885959715318</v>
       </c>
       <c r="J14">
-        <v>0.9996000642110423</v>
+        <v>1.017844361629254</v>
       </c>
       <c r="K14">
-        <v>1.008921188676606</v>
+        <v>1.022287232203624</v>
       </c>
       <c r="L14">
-        <v>0.9964669914641456</v>
+        <v>1.017076759642673</v>
       </c>
       <c r="M14">
-        <v>0.9229867078473142</v>
+        <v>1.025785032053821</v>
       </c>
       <c r="N14">
-        <v>1.003952080722111</v>
+        <v>1.010082432256856</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9693140830651168</v>
+        <v>1.011179373901794</v>
       </c>
       <c r="D15">
-        <v>0.9942270133579749</v>
+        <v>1.018715402732566</v>
       </c>
       <c r="E15">
-        <v>0.9815341667928124</v>
+        <v>1.013493219568928</v>
       </c>
       <c r="F15">
-        <v>0.9077142206553115</v>
+        <v>1.022397619696436</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030631527616912</v>
+        <v>1.026909280389492</v>
       </c>
       <c r="J15">
-        <v>0.999862393864676</v>
+        <v>1.017892963764023</v>
       </c>
       <c r="K15">
-        <v>1.009186088962271</v>
+        <v>1.02233170226766</v>
       </c>
       <c r="L15">
-        <v>0.9967390131062686</v>
+        <v>1.017129633387755</v>
       </c>
       <c r="M15">
-        <v>0.9245318926843272</v>
+        <v>1.02599987338725</v>
       </c>
       <c r="N15">
-        <v>1.004039488541692</v>
+        <v>1.010098574353423</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.972083821265893</v>
+        <v>1.011687159331435</v>
       </c>
       <c r="D16">
-        <v>0.9963050934616429</v>
+        <v>1.019091315019326</v>
       </c>
       <c r="E16">
-        <v>0.9836713484084192</v>
+        <v>1.013919285261564</v>
       </c>
       <c r="F16">
-        <v>0.9172611305630523</v>
+        <v>1.023765852839212</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031873775842995</v>
+        <v>1.027044174775693</v>
       </c>
       <c r="J16">
-        <v>1.001370051930584</v>
+        <v>1.018175732660899</v>
       </c>
       <c r="K16">
-        <v>1.010704507630777</v>
+        <v>1.022590194696234</v>
       </c>
       <c r="L16">
-        <v>0.9983042502432047</v>
+        <v>1.017437388195178</v>
       </c>
       <c r="M16">
-        <v>0.9332626002375426</v>
+        <v>1.027247543065974</v>
       </c>
       <c r="N16">
-        <v>1.004541852305081</v>
+        <v>1.010192480604755</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9737957763447279</v>
+        <v>1.01200578632862</v>
       </c>
       <c r="D17">
-        <v>0.9975868553556215</v>
+        <v>1.019327044080181</v>
       </c>
       <c r="E17">
-        <v>0.9849945078533828</v>
+        <v>1.01418677519191</v>
       </c>
       <c r="F17">
-        <v>0.9230180986458237</v>
+        <v>1.024621758517083</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032627188627299</v>
+        <v>1.027128050488109</v>
       </c>
       <c r="J17">
-        <v>1.002299570098713</v>
+        <v>1.018353003310607</v>
       </c>
       <c r="K17">
-        <v>1.011637328449028</v>
+        <v>1.022752038658957</v>
       </c>
       <c r="L17">
-        <v>0.9992708545432333</v>
+        <v>1.017630440242979</v>
       </c>
       <c r="M17">
-        <v>0.9385254289973841</v>
+        <v>1.028027737784436</v>
       </c>
       <c r="N17">
-        <v>1.00485158431153</v>
+        <v>1.010251343398316</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9747855418746878</v>
+        <v>1.012191674320341</v>
       </c>
       <c r="D18">
-        <v>0.9983270282819051</v>
+        <v>1.019464515271472</v>
       </c>
       <c r="E18">
-        <v>0.9857602720726695</v>
+        <v>1.014342880203268</v>
       </c>
       <c r="F18">
-        <v>0.9262995570116763</v>
+        <v>1.025120159398642</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033057892904696</v>
+        <v>1.02717670773677</v>
       </c>
       <c r="J18">
-        <v>1.002836169905131</v>
+        <v>1.018456365160477</v>
       </c>
       <c r="K18">
-        <v>1.012174702017434</v>
+        <v>1.022846330922504</v>
       </c>
       <c r="L18">
-        <v>0.9998294136934154</v>
+        <v>1.017743046103641</v>
       </c>
       <c r="M18">
-        <v>0.9415244900178005</v>
+        <v>1.028481946348198</v>
       </c>
       <c r="N18">
-        <v>1.005030390842429</v>
+        <v>1.010285661858815</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9751215687583954</v>
+        <v>1.012255063793909</v>
       </c>
       <c r="D19">
-        <v>0.9985781768615322</v>
+        <v>1.019511385048365</v>
       </c>
       <c r="E19">
-        <v>0.986020382014305</v>
+        <v>1.014396121970404</v>
       </c>
       <c r="F19">
-        <v>0.9274060721894304</v>
+        <v>1.025289960882584</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033203315790517</v>
+        <v>1.02719325353635</v>
       </c>
       <c r="J19">
-        <v>1.003018214493325</v>
+        <v>1.018491602576582</v>
       </c>
       <c r="K19">
-        <v>1.012356822562007</v>
+        <v>1.022878463736845</v>
       </c>
       <c r="L19">
-        <v>1.000018999600109</v>
+        <v>1.017781442094448</v>
       </c>
       <c r="M19">
-        <v>0.9425356515980636</v>
+        <v>1.028636673986374</v>
       </c>
       <c r="N19">
-        <v>1.005091052196488</v>
+        <v>1.010297360983609</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9736130168672801</v>
+        <v>1.01197159670677</v>
       </c>
       <c r="D20">
-        <v>0.9974501139150309</v>
+        <v>1.019301755227354</v>
       </c>
       <c r="E20">
-        <v>0.9848531730426114</v>
+        <v>1.014158067497442</v>
       </c>
       <c r="F20">
-        <v>0.922408486785934</v>
+        <v>1.024530014532302</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032547271115196</v>
+        <v>1.027119078949599</v>
       </c>
       <c r="J20">
-        <v>1.002200423581036</v>
+        <v>1.018333987685643</v>
       </c>
       <c r="K20">
-        <v>1.011537948671772</v>
+        <v>1.022734685566335</v>
       </c>
       <c r="L20">
-        <v>0.9991676947017495</v>
+        <v>1.017609727388905</v>
       </c>
       <c r="M20">
-        <v>0.9379682184440861</v>
+        <v>1.027944120096873</v>
       </c>
       <c r="N20">
-        <v>1.004818546697502</v>
+        <v>1.01024502955028</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9686026127917922</v>
+        <v>1.011050468584367</v>
       </c>
       <c r="D21">
-        <v>0.9936922860916606</v>
+        <v>1.018619928240071</v>
       </c>
       <c r="E21">
-        <v>0.9809858699432273</v>
+        <v>1.01338510296405</v>
       </c>
       <c r="F21">
-        <v>0.9052123041673011</v>
+        <v>1.022049458636717</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030307629845396</v>
+        <v>1.026874798923119</v>
       </c>
       <c r="J21">
-        <v>0.9994743358762518</v>
+        <v>1.017821130632716</v>
       </c>
       <c r="K21">
-        <v>1.00879415360878</v>
+        <v>1.022265972095519</v>
       </c>
       <c r="L21">
-        <v>0.9963366524761662</v>
+        <v>1.017051489249279</v>
       </c>
       <c r="M21">
-        <v>0.9222432821000091</v>
+        <v>1.025682300755685</v>
       </c>
       <c r="N21">
-        <v>1.003910188556973</v>
+        <v>1.010074716449334</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9653645817045767</v>
+        <v>1.010471666942791</v>
       </c>
       <c r="D22">
-        <v>0.9912534043410569</v>
+        <v>1.018191007541723</v>
       </c>
       <c r="E22">
-        <v>0.9784938924110693</v>
+        <v>1.012899860380919</v>
       </c>
       <c r="F22">
-        <v>0.8935457746857761</v>
+        <v>1.020482042040907</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028807547855002</v>
+        <v>1.026718799842008</v>
       </c>
       <c r="J22">
-        <v>0.9977039904953572</v>
+        <v>1.017498344082079</v>
       </c>
       <c r="K22">
-        <v>1.007000147391237</v>
+        <v>1.021970293387833</v>
       </c>
       <c r="L22">
-        <v>0.9945037770340538</v>
+        <v>1.016700522689786</v>
       </c>
       <c r="M22">
-        <v>0.9115686796515876</v>
+        <v>1.024252148556566</v>
       </c>
       <c r="N22">
-        <v>1.003320342218477</v>
+        <v>1.009967497492389</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9670899148088214</v>
+        <v>1.010778467474388</v>
       </c>
       <c r="D23">
-        <v>0.9925540274881021</v>
+        <v>1.018418408163374</v>
       </c>
       <c r="E23">
-        <v>0.9798210132827107</v>
+        <v>1.01315702518187</v>
       </c>
       <c r="F23">
-        <v>0.8998209592201283</v>
+        <v>1.021313711382227</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029612231280818</v>
+        <v>1.026801727078282</v>
       </c>
       <c r="J23">
-        <v>0.9986481668996061</v>
+        <v>1.017669490834872</v>
       </c>
       <c r="K23">
-        <v>1.007958178660305</v>
+        <v>1.022127131243328</v>
       </c>
       <c r="L23">
-        <v>0.9954807447032449</v>
+        <v>1.016886574669639</v>
       </c>
       <c r="M23">
-        <v>0.9173108506742637</v>
+        <v>1.025011075539301</v>
       </c>
       <c r="N23">
-        <v>1.003634918016529</v>
+        <v>1.010024349182742</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.973695625081156</v>
+        <v>1.011987045407497</v>
       </c>
       <c r="D24">
-        <v>0.9975119244401562</v>
+        <v>1.019313182250817</v>
       </c>
       <c r="E24">
-        <v>0.9849170546763789</v>
+        <v>1.014171039013881</v>
       </c>
       <c r="F24">
-        <v>0.9226841788459719</v>
+        <v>1.024571472266721</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032583409303095</v>
+        <v>1.027123133623768</v>
       </c>
       <c r="J24">
-        <v>1.002245240783085</v>
+        <v>1.018342580143037</v>
       </c>
       <c r="K24">
-        <v>1.011582874814288</v>
+        <v>1.022742527017701</v>
       </c>
       <c r="L24">
-        <v>0.9992143243447542</v>
+        <v>1.017619086630634</v>
       </c>
       <c r="M24">
-        <v>0.9382202147496348</v>
+        <v>1.027981906004495</v>
       </c>
       <c r="N24">
-        <v>1.004833480685092</v>
+        <v>1.010247882553532</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9810190436823416</v>
+        <v>1.013391031313369</v>
       </c>
       <c r="D25">
-        <v>1.002975118829285</v>
+        <v>1.020350513022442</v>
       </c>
       <c r="E25">
-        <v>0.9905966944891775</v>
+        <v>1.015350984680468</v>
       </c>
       <c r="F25">
-        <v>0.9462508146632244</v>
+        <v>1.028319325266351</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035691125286855</v>
+        <v>1.027485678545626</v>
       </c>
       <c r="J25">
-        <v>1.006202523762656</v>
+        <v>1.019122205573594</v>
       </c>
       <c r="K25">
-        <v>1.015527424806627</v>
+        <v>1.023452400586103</v>
       </c>
       <c r="L25">
-        <v>1.003342759912813</v>
+        <v>1.018469197343324</v>
       </c>
       <c r="M25">
-        <v>0.9597450597393299</v>
+        <v>1.031395551273017</v>
       </c>
       <c r="N25">
-        <v>1.006152129621634</v>
+        <v>1.010506683425898</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014512034968396</v>
+        <v>0.9866195859308747</v>
       </c>
       <c r="D2">
-        <v>1.021177064778995</v>
+        <v>1.007133346977382</v>
       </c>
       <c r="E2">
-        <v>1.016294683959863</v>
+        <v>0.9949632556365555</v>
       </c>
       <c r="F2">
-        <v>1.031283731953605</v>
+        <v>0.9632536133198553</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027766502017877</v>
+        <v>1.037943943954125</v>
       </c>
       <c r="J2">
-        <v>1.019742848219908</v>
+        <v>1.009208003419766</v>
       </c>
       <c r="K2">
-        <v>1.02401516598659</v>
+        <v>1.01849418950935</v>
       </c>
       <c r="L2">
-        <v>1.019147283095312</v>
+        <v>1.006493209186803</v>
       </c>
       <c r="M2">
-        <v>1.034092296332529</v>
+        <v>0.9752497855440999</v>
       </c>
       <c r="N2">
-        <v>1.010712616546928</v>
+        <v>1.007153538892834</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015326662713061</v>
+        <v>0.9905606630687622</v>
       </c>
       <c r="D3">
-        <v>1.021776733406373</v>
+        <v>1.010050210243546</v>
       </c>
       <c r="E3">
-        <v>1.016981371684578</v>
+        <v>0.9980488381944653</v>
       </c>
       <c r="F3">
-        <v>1.033422418599152</v>
+        <v>0.9747681896268593</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027965599844443</v>
+        <v>1.039466117983862</v>
       </c>
       <c r="J3">
-        <v>1.020192798088301</v>
+        <v>1.011312003915672</v>
       </c>
       <c r="K3">
-        <v>1.024421798266569</v>
+        <v>1.020556091716568</v>
       </c>
       <c r="L3">
-        <v>1.019639647717781</v>
+        <v>1.008706745527755</v>
       </c>
       <c r="M3">
-        <v>1.036035951952894</v>
+        <v>0.9857344311942736</v>
       </c>
       <c r="N3">
-        <v>1.010861858397674</v>
+        <v>1.00785447963096</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015854092513613</v>
+        <v>0.9930567517737672</v>
       </c>
       <c r="D4">
-        <v>1.022164534302676</v>
+        <v>1.011893794115902</v>
       </c>
       <c r="E4">
-        <v>1.017426382930528</v>
+        <v>1.000008870829032</v>
       </c>
       <c r="F4">
-        <v>1.034800158363715</v>
+        <v>0.9818875588056304</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028092216435254</v>
+        <v>1.040403036107986</v>
       </c>
       <c r="J4">
-        <v>1.020483623871425</v>
+        <v>1.012639749719277</v>
       </c>
       <c r="K4">
-        <v>1.024683998471922</v>
+        <v>1.021850760005973</v>
       </c>
       <c r="L4">
-        <v>1.01995824403462</v>
+        <v>1.010107188788851</v>
       </c>
       <c r="M4">
-        <v>1.03728716112979</v>
+        <v>0.9922096149161586</v>
       </c>
       <c r="N4">
-        <v>1.010958295728616</v>
+        <v>1.008296750696958</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016075897741842</v>
+        <v>0.9940937012426526</v>
       </c>
       <c r="D5">
-        <v>1.022327511446471</v>
+        <v>1.012658810059692</v>
       </c>
       <c r="E5">
-        <v>1.017613626996436</v>
+        <v>1.000824485790365</v>
       </c>
       <c r="F5">
-        <v>1.035377923542909</v>
+        <v>0.9848079067688253</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028144917641023</v>
+        <v>1.04078599414617</v>
       </c>
       <c r="J5">
-        <v>1.020605809545839</v>
+        <v>1.013190202190767</v>
       </c>
       <c r="K5">
-        <v>1.024794007566554</v>
+        <v>1.022385987442886</v>
       </c>
       <c r="L5">
-        <v>1.020092182130013</v>
+        <v>1.010688619500664</v>
       </c>
       <c r="M5">
-        <v>1.037811651029759</v>
+        <v>0.9948639105870675</v>
       </c>
       <c r="N5">
-        <v>1.010998806180983</v>
+        <v>1.008480088530936</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016113144117508</v>
+        <v>0.9942670968289414</v>
       </c>
       <c r="D6">
-        <v>1.022354872822661</v>
+        <v>1.012786684243758</v>
       </c>
       <c r="E6">
-        <v>1.017645075528643</v>
+        <v>1.000960949618602</v>
       </c>
       <c r="F6">
-        <v>1.035474849528767</v>
+        <v>0.9852941641099976</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028153735458901</v>
+        <v>1.040849669404395</v>
       </c>
       <c r="J6">
-        <v>1.020626320501666</v>
+        <v>1.013282181234813</v>
       </c>
       <c r="K6">
-        <v>1.024812465681284</v>
+        <v>1.022475334820306</v>
       </c>
       <c r="L6">
-        <v>1.020114670918905</v>
+        <v>1.010785823820712</v>
       </c>
       <c r="M6">
-        <v>1.037899626999657</v>
+        <v>0.9953057609961654</v>
       </c>
       <c r="N6">
-        <v>1.011005606194265</v>
+        <v>1.008510722670403</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015857055997164</v>
+        <v>0.9930706556163708</v>
       </c>
       <c r="D7">
-        <v>1.022166712225558</v>
+        <v>1.011904055115086</v>
       </c>
       <c r="E7">
-        <v>1.017428884262332</v>
+        <v>1.000019801592898</v>
       </c>
       <c r="F7">
-        <v>1.034807884096706</v>
+        <v>0.9819268578895202</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028092922705981</v>
+        <v>1.040408195420838</v>
       </c>
       <c r="J7">
-        <v>1.020485256827428</v>
+        <v>1.012647134857328</v>
       </c>
       <c r="K7">
-        <v>1.024685469282942</v>
+        <v>1.021857946795889</v>
       </c>
       <c r="L7">
-        <v>1.019960033722034</v>
+        <v>1.010114986247846</v>
       </c>
       <c r="M7">
-        <v>1.037294175320128</v>
+        <v>0.9922453409648001</v>
       </c>
       <c r="N7">
-        <v>1.010958837156449</v>
+        <v>1.00829921051848</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014787277347958</v>
+        <v>0.9879630191154727</v>
       </c>
       <c r="D8">
-        <v>1.021379771834255</v>
+        <v>1.008128483740035</v>
       </c>
       <c r="E8">
-        <v>1.016526612195561</v>
+        <v>0.9960138410079834</v>
       </c>
       <c r="F8">
-        <v>1.032007800349722</v>
+        <v>0.9672179587582043</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027834247129552</v>
+        <v>1.038468686108654</v>
       </c>
       <c r="J8">
-        <v>1.019894977277455</v>
+        <v>1.009926245269273</v>
       </c>
       <c r="K8">
-        <v>1.024152779319888</v>
+        <v>1.019199463875523</v>
       </c>
       <c r="L8">
-        <v>1.01931367892998</v>
+        <v>1.007248079464886</v>
       </c>
       <c r="M8">
-        <v>1.034750520574146</v>
+        <v>0.9788610885136448</v>
       </c>
       <c r="N8">
-        <v>1.010763080786148</v>
+        <v>1.007392830563701</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012904606186874</v>
+        <v>0.978522055341732</v>
       </c>
       <c r="D9">
-        <v>1.019991382367843</v>
+        <v>1.001115880765439</v>
       </c>
       <c r="E9">
-        <v>1.014941935043466</v>
+        <v>0.9886564516483003</v>
       </c>
       <c r="F9">
-        <v>1.027025279498114</v>
+        <v>0.938399539021765</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027361414288277</v>
+        <v>1.034652497810199</v>
       </c>
       <c r="J9">
-        <v>1.018852381953921</v>
+        <v>1.004856738379575</v>
       </c>
       <c r="K9">
-        <v>1.023207082186721</v>
+        <v>1.014190879489399</v>
       </c>
       <c r="L9">
-        <v>1.018174772684577</v>
+        <v>1.001936290763827</v>
       </c>
       <c r="M9">
-        <v>1.030217414626375</v>
+        <v>0.9525779068743631</v>
       </c>
       <c r="N9">
-        <v>1.01041712826801</v>
+        <v>1.005703690390586</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011651156602935</v>
+        <v>0.9718891383877699</v>
       </c>
       <c r="D10">
-        <v>1.019064671911036</v>
+        <v>0.9961592061916766</v>
       </c>
       <c r="E10">
-        <v>1.013889067531121</v>
+        <v>0.983520986138368</v>
       </c>
       <c r="F10">
-        <v>1.023669013439052</v>
+        <v>0.9165997083304956</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027034659970807</v>
+        <v>1.03178741076921</v>
       </c>
       <c r="J10">
-        <v>1.018155694354099</v>
+        <v>1.001264235026366</v>
       </c>
       <c r="K10">
-        <v>1.022571890073787</v>
+        <v>1.010598155363951</v>
       </c>
       <c r="L10">
-        <v>1.017415571719395</v>
+        <v>0.9981942880511234</v>
       </c>
       <c r="M10">
-        <v>1.027159255547844</v>
+        <v>0.9326578504321279</v>
       </c>
       <c r="N10">
-        <v>1.010185826486894</v>
+        <v>1.004506592586958</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011108801481807</v>
+        <v>0.9689249977842769</v>
       </c>
       <c r="D11">
-        <v>1.018663135152744</v>
+        <v>0.9939346332405975</v>
       </c>
       <c r="E11">
-        <v>1.013434026273994</v>
+        <v>0.9812342827492538</v>
       </c>
       <c r="F11">
-        <v>1.022207051683667</v>
+        <v>0.9063485995630092</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026890414504994</v>
+        <v>1.030454644063381</v>
       </c>
       <c r="J11">
-        <v>1.017853639424553</v>
+        <v>0.9996502150282992</v>
       </c>
       <c r="K11">
-        <v>1.022295722129152</v>
+        <v>1.008971847194896</v>
       </c>
       <c r="L11">
-        <v>1.017086852341003</v>
+        <v>0.9965189876280974</v>
       </c>
       <c r="M11">
-        <v>1.025826052621497</v>
+        <v>0.9232827285465757</v>
       </c>
       <c r="N11">
-        <v>1.010085513700901</v>
+        <v>1.003968790826391</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010907406777564</v>
+        <v>0.9678089464518482</v>
       </c>
       <c r="D12">
-        <v>1.018513946926391</v>
+        <v>0.9930953094800892</v>
       </c>
       <c r="E12">
-        <v>1.013265133401175</v>
+        <v>0.9803745524073928</v>
       </c>
       <c r="F12">
-        <v>1.02166267061376</v>
+        <v>0.9023960698839855</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026836418857501</v>
+        <v>1.029943931418276</v>
       </c>
       <c r="J12">
-        <v>1.017741385209296</v>
+        <v>0.9990410582727826</v>
       </c>
       <c r="K12">
-        <v>1.022192971709643</v>
+        <v>1.008355998880511</v>
       </c>
       <c r="L12">
-        <v>1.016964754733784</v>
+        <v>0.9958876575532725</v>
       </c>
       <c r="M12">
-        <v>1.02532945245152</v>
+        <v>0.919666887279061</v>
       </c>
       <c r="N12">
-        <v>1.010048229491235</v>
+        <v>1.003765823903152</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010950603895907</v>
+        <v>0.96804904573235</v>
       </c>
       <c r="D13">
-        <v>1.018545950096052</v>
+        <v>0.9932759598383922</v>
       </c>
       <c r="E13">
-        <v>1.01330135561171</v>
+        <v>0.980559451880041</v>
       </c>
       <c r="F13">
-        <v>1.021779503639353</v>
+        <v>0.9032508943219874</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02684801998547</v>
+        <v>1.030054224461609</v>
       </c>
       <c r="J13">
-        <v>1.017765466721252</v>
+        <v>0.999172176527108</v>
       </c>
       <c r="K13">
-        <v>1.022215019691094</v>
+        <v>1.008488654492506</v>
       </c>
       <c r="L13">
-        <v>1.016990944923807</v>
+        <v>0.9960235040575658</v>
       </c>
       <c r="M13">
-        <v>1.02543603834286</v>
+        <v>0.9204489407428976</v>
       </c>
       <c r="N13">
-        <v>1.010056228146025</v>
+        <v>1.003809511181956</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011092152903057</v>
+        <v>0.9688330592256547</v>
       </c>
       <c r="D14">
-        <v>1.018650804014031</v>
+        <v>0.9938655283778626</v>
       </c>
       <c r="E14">
-        <v>1.013420062885219</v>
+        <v>0.9811634339980493</v>
       </c>
       <c r="F14">
-        <v>1.022162080612304</v>
+        <v>0.9060249923965227</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026885959715318</v>
+        <v>1.030412760214226</v>
       </c>
       <c r="J14">
-        <v>1.017844361629254</v>
+        <v>0.9996000642110418</v>
       </c>
       <c r="K14">
-        <v>1.022287232203624</v>
+        <v>1.008921188676606</v>
       </c>
       <c r="L14">
-        <v>1.017076759642673</v>
+        <v>0.996466991464145</v>
       </c>
       <c r="M14">
-        <v>1.025785032053821</v>
+        <v>0.9229867078473142</v>
       </c>
       <c r="N14">
-        <v>1.010082432256856</v>
+        <v>1.003952080722111</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011179373901794</v>
+        <v>0.9693140830651165</v>
       </c>
       <c r="D15">
-        <v>1.018715402732566</v>
+        <v>0.9942270133579745</v>
       </c>
       <c r="E15">
-        <v>1.013493219568928</v>
+        <v>0.9815341667928121</v>
       </c>
       <c r="F15">
-        <v>1.022397619696436</v>
+        <v>0.9077142206553124</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026909280389492</v>
+        <v>1.030631527616912</v>
       </c>
       <c r="J15">
-        <v>1.017892963764023</v>
+        <v>0.9998623938646759</v>
       </c>
       <c r="K15">
-        <v>1.02233170226766</v>
+        <v>1.009186088962271</v>
       </c>
       <c r="L15">
-        <v>1.017129633387755</v>
+        <v>0.9967390131062683</v>
       </c>
       <c r="M15">
-        <v>1.02599987338725</v>
+        <v>0.9245318926843278</v>
       </c>
       <c r="N15">
-        <v>1.010098574353423</v>
+        <v>1.004039488541691</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011687159331435</v>
+        <v>0.9720838212658934</v>
       </c>
       <c r="D16">
-        <v>1.019091315019326</v>
+        <v>0.9963050934616435</v>
       </c>
       <c r="E16">
-        <v>1.013919285261564</v>
+        <v>0.98367134840842</v>
       </c>
       <c r="F16">
-        <v>1.023765852839212</v>
+        <v>0.9172611305630529</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027044174775693</v>
+        <v>1.031873775842995</v>
       </c>
       <c r="J16">
-        <v>1.018175732660899</v>
+        <v>1.001370051930584</v>
       </c>
       <c r="K16">
-        <v>1.022590194696234</v>
+        <v>1.010704507630778</v>
       </c>
       <c r="L16">
-        <v>1.017437388195178</v>
+        <v>0.9983042502432056</v>
       </c>
       <c r="M16">
-        <v>1.027247543065974</v>
+        <v>0.9332626002375434</v>
       </c>
       <c r="N16">
-        <v>1.010192480604755</v>
+        <v>1.004541852305081</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01200578632862</v>
+        <v>0.9737957763447276</v>
       </c>
       <c r="D17">
-        <v>1.019327044080181</v>
+        <v>0.9975868553556212</v>
       </c>
       <c r="E17">
-        <v>1.01418677519191</v>
+        <v>0.9849945078533819</v>
       </c>
       <c r="F17">
-        <v>1.024621758517083</v>
+        <v>0.9230180986458237</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027128050488109</v>
+        <v>1.032627188627299</v>
       </c>
       <c r="J17">
-        <v>1.018353003310607</v>
+        <v>1.002299570098713</v>
       </c>
       <c r="K17">
-        <v>1.022752038658957</v>
+        <v>1.011637328449027</v>
       </c>
       <c r="L17">
-        <v>1.017630440242979</v>
+        <v>0.9992708545432326</v>
       </c>
       <c r="M17">
-        <v>1.028027737784436</v>
+        <v>0.9385254289973841</v>
       </c>
       <c r="N17">
-        <v>1.010251343398316</v>
+        <v>1.00485158431153</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012191674320341</v>
+        <v>0.9747855418746877</v>
       </c>
       <c r="D18">
-        <v>1.019464515271472</v>
+        <v>0.9983270282819052</v>
       </c>
       <c r="E18">
-        <v>1.014342880203268</v>
+        <v>0.9857602720726693</v>
       </c>
       <c r="F18">
-        <v>1.025120159398642</v>
+        <v>0.926299557011676</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02717670773677</v>
+        <v>1.033057892904696</v>
       </c>
       <c r="J18">
-        <v>1.018456365160477</v>
+        <v>1.002836169905131</v>
       </c>
       <c r="K18">
-        <v>1.022846330922504</v>
+        <v>1.012174702017434</v>
       </c>
       <c r="L18">
-        <v>1.017743046103641</v>
+        <v>0.9998294136934149</v>
       </c>
       <c r="M18">
-        <v>1.028481946348198</v>
+        <v>0.9415244900178001</v>
       </c>
       <c r="N18">
-        <v>1.010285661858815</v>
+        <v>1.005030390842429</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012255063793909</v>
+        <v>0.9751215687583955</v>
       </c>
       <c r="D19">
-        <v>1.019511385048365</v>
+        <v>0.9985781768615322</v>
       </c>
       <c r="E19">
-        <v>1.014396121970404</v>
+        <v>0.9860203820143046</v>
       </c>
       <c r="F19">
-        <v>1.025289960882584</v>
+        <v>0.9274060721894301</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02719325353635</v>
+        <v>1.033203315790517</v>
       </c>
       <c r="J19">
-        <v>1.018491602576582</v>
+        <v>1.003018214493325</v>
       </c>
       <c r="K19">
-        <v>1.022878463736845</v>
+        <v>1.012356822562007</v>
       </c>
       <c r="L19">
-        <v>1.017781442094448</v>
+        <v>1.000018999600109</v>
       </c>
       <c r="M19">
-        <v>1.028636673986374</v>
+        <v>0.9425356515980632</v>
       </c>
       <c r="N19">
-        <v>1.010297360983609</v>
+        <v>1.005091052196488</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01197159670677</v>
+        <v>0.9736130168672804</v>
       </c>
       <c r="D20">
-        <v>1.019301755227354</v>
+        <v>0.9974501139150307</v>
       </c>
       <c r="E20">
-        <v>1.014158067497442</v>
+        <v>0.9848531730426117</v>
       </c>
       <c r="F20">
-        <v>1.024530014532302</v>
+        <v>0.9224084867859347</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027119078949599</v>
+        <v>1.032547271115196</v>
       </c>
       <c r="J20">
-        <v>1.018333987685643</v>
+        <v>1.002200423581037</v>
       </c>
       <c r="K20">
-        <v>1.022734685566335</v>
+        <v>1.011537948671772</v>
       </c>
       <c r="L20">
-        <v>1.017609727388905</v>
+        <v>0.9991676947017497</v>
       </c>
       <c r="M20">
-        <v>1.027944120096873</v>
+        <v>0.9379682184440866</v>
       </c>
       <c r="N20">
-        <v>1.01024502955028</v>
+        <v>1.004818546697502</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011050468584367</v>
+        <v>0.9686026127917922</v>
       </c>
       <c r="D21">
-        <v>1.018619928240071</v>
+        <v>0.9936922860916607</v>
       </c>
       <c r="E21">
-        <v>1.01338510296405</v>
+        <v>0.9809858699432271</v>
       </c>
       <c r="F21">
-        <v>1.022049458636717</v>
+        <v>0.9052123041673008</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026874798923119</v>
+        <v>1.030307629845396</v>
       </c>
       <c r="J21">
-        <v>1.017821130632716</v>
+        <v>0.9994743358762517</v>
       </c>
       <c r="K21">
-        <v>1.022265972095519</v>
+        <v>1.00879415360878</v>
       </c>
       <c r="L21">
-        <v>1.017051489249279</v>
+        <v>0.9963366524761659</v>
       </c>
       <c r="M21">
-        <v>1.025682300755685</v>
+        <v>0.9222432821000088</v>
       </c>
       <c r="N21">
-        <v>1.010074716449334</v>
+        <v>1.003910188556973</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010471666942791</v>
+        <v>0.9653645817045754</v>
       </c>
       <c r="D22">
-        <v>1.018191007541723</v>
+        <v>0.9912534043410558</v>
       </c>
       <c r="E22">
-        <v>1.012899860380919</v>
+        <v>0.9784938924110678</v>
       </c>
       <c r="F22">
-        <v>1.020482042040907</v>
+        <v>0.8935457746857748</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026718799842008</v>
+        <v>1.028807547855001</v>
       </c>
       <c r="J22">
-        <v>1.017498344082079</v>
+        <v>0.997703990495356</v>
       </c>
       <c r="K22">
-        <v>1.021970293387833</v>
+        <v>1.007000147391236</v>
       </c>
       <c r="L22">
-        <v>1.016700522689786</v>
+        <v>0.9945037770340523</v>
       </c>
       <c r="M22">
-        <v>1.024252148556566</v>
+        <v>0.9115686796515862</v>
       </c>
       <c r="N22">
-        <v>1.009967497492389</v>
+        <v>1.003320342218477</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010778467474388</v>
+        <v>0.9670899148088206</v>
       </c>
       <c r="D23">
-        <v>1.018418408163374</v>
+        <v>0.9925540274881014</v>
       </c>
       <c r="E23">
-        <v>1.01315702518187</v>
+        <v>0.9798210132827097</v>
       </c>
       <c r="F23">
-        <v>1.021313711382227</v>
+        <v>0.8998209592201279</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026801727078282</v>
+        <v>1.029612231280818</v>
       </c>
       <c r="J23">
-        <v>1.017669490834872</v>
+        <v>0.9986481668996053</v>
       </c>
       <c r="K23">
-        <v>1.022127131243328</v>
+        <v>1.007958178660304</v>
       </c>
       <c r="L23">
-        <v>1.016886574669639</v>
+        <v>0.9954807447032439</v>
       </c>
       <c r="M23">
-        <v>1.025011075539301</v>
+        <v>0.9173108506742634</v>
       </c>
       <c r="N23">
-        <v>1.010024349182742</v>
+        <v>1.003634918016529</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011987045407497</v>
+        <v>0.9736956250811565</v>
       </c>
       <c r="D24">
-        <v>1.019313182250817</v>
+        <v>0.9975119244401566</v>
       </c>
       <c r="E24">
-        <v>1.014171039013881</v>
+        <v>0.9849170546763796</v>
       </c>
       <c r="F24">
-        <v>1.024571472266721</v>
+        <v>0.9226841788459716</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027123133623768</v>
+        <v>1.032583409303095</v>
       </c>
       <c r="J24">
-        <v>1.018342580143037</v>
+        <v>1.002245240783086</v>
       </c>
       <c r="K24">
-        <v>1.022742527017701</v>
+        <v>1.011582874814288</v>
       </c>
       <c r="L24">
-        <v>1.017619086630634</v>
+        <v>0.9992143243447548</v>
       </c>
       <c r="M24">
-        <v>1.027981906004495</v>
+        <v>0.9382202147496346</v>
       </c>
       <c r="N24">
-        <v>1.010247882553532</v>
+        <v>1.004833480685092</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013391031313369</v>
+        <v>0.9810190436823422</v>
       </c>
       <c r="D25">
-        <v>1.020350513022442</v>
+        <v>1.002975118829286</v>
       </c>
       <c r="E25">
-        <v>1.015350984680468</v>
+        <v>0.9905966944891781</v>
       </c>
       <c r="F25">
-        <v>1.028319325266351</v>
+        <v>0.9462508146632247</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027485678545626</v>
+        <v>1.035691125286856</v>
       </c>
       <c r="J25">
-        <v>1.019122205573594</v>
+        <v>1.006202523762656</v>
       </c>
       <c r="K25">
-        <v>1.023452400586103</v>
+        <v>1.015527424806628</v>
       </c>
       <c r="L25">
-        <v>1.018469197343324</v>
+        <v>1.003342759912814</v>
       </c>
       <c r="M25">
-        <v>1.031395551273017</v>
+        <v>0.9597450597393306</v>
       </c>
       <c r="N25">
-        <v>1.010506683425898</v>
+        <v>1.006152129621634</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,40 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9866195859308747</v>
+        <v>1.004921179445339</v>
       </c>
       <c r="D2">
-        <v>1.007133346977382</v>
+        <v>1.024046933871684</v>
       </c>
       <c r="E2">
-        <v>0.9949632556365555</v>
-      </c>
-      <c r="F2">
-        <v>0.9632536133198553</v>
+        <v>1.010765063210296</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037943943954125</v>
+        <v>1.04689529991252</v>
       </c>
       <c r="J2">
-        <v>1.009208003419766</v>
+        <v>1.026955688615121</v>
       </c>
       <c r="K2">
-        <v>1.01849418950935</v>
+        <v>1.035181121417065</v>
       </c>
       <c r="L2">
-        <v>1.006493209186803</v>
-      </c>
-      <c r="M2">
-        <v>0.9752497855440999</v>
+        <v>1.022076433498745</v>
       </c>
       <c r="N2">
-        <v>1.007153538892834</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013033923839814</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035946346660889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +474,40 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9905606630687622</v>
+        <v>1.008105004560055</v>
       </c>
       <c r="D3">
-        <v>1.010050210243546</v>
+        <v>1.026117050187939</v>
       </c>
       <c r="E3">
-        <v>0.9980488381944653</v>
-      </c>
-      <c r="F3">
-        <v>0.9747681896268593</v>
+        <v>1.013212705224305</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039466117983862</v>
+        <v>1.047635814347183</v>
       </c>
       <c r="J3">
-        <v>1.011312003915672</v>
+        <v>1.028377131363126</v>
       </c>
       <c r="K3">
-        <v>1.020556091716568</v>
+        <v>1.036426317930076</v>
       </c>
       <c r="L3">
-        <v>1.008706745527755</v>
-      </c>
-      <c r="M3">
-        <v>0.9857344311942736</v>
+        <v>1.02367927286694</v>
       </c>
       <c r="N3">
-        <v>1.00785447963096</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013501643211992</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036824139001143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +515,40 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9930567517737672</v>
+        <v>1.010131376451964</v>
       </c>
       <c r="D4">
-        <v>1.011893794115902</v>
+        <v>1.027437726786968</v>
       </c>
       <c r="E4">
-        <v>1.000008870829032</v>
-      </c>
-      <c r="F4">
-        <v>0.9818875588056304</v>
+        <v>1.014776121541194</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040403036107986</v>
+        <v>1.048097589502123</v>
       </c>
       <c r="J4">
-        <v>1.012639749719277</v>
+        <v>1.029279423781882</v>
       </c>
       <c r="K4">
-        <v>1.021850760005973</v>
+        <v>1.037215907449181</v>
       </c>
       <c r="L4">
-        <v>1.010107188788851</v>
-      </c>
-      <c r="M4">
-        <v>0.9922096149161586</v>
+        <v>1.024699423726299</v>
       </c>
       <c r="N4">
-        <v>1.008296750696958</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013798636639583</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037383348326932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +556,40 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9940937012426526</v>
+        <v>1.010977614681456</v>
       </c>
       <c r="D5">
-        <v>1.012658810059692</v>
+        <v>1.027992018577902</v>
       </c>
       <c r="E5">
-        <v>1.000824485790365</v>
-      </c>
-      <c r="F5">
-        <v>0.9848079067688253</v>
+        <v>1.015430594688905</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04078599414617</v>
+        <v>1.048289475089854</v>
       </c>
       <c r="J5">
-        <v>1.013190202190767</v>
+        <v>1.02965682342284</v>
       </c>
       <c r="K5">
-        <v>1.022385987442886</v>
+        <v>1.037547512509656</v>
       </c>
       <c r="L5">
-        <v>1.010688619500664</v>
-      </c>
-      <c r="M5">
-        <v>0.9948639105870675</v>
+        <v>1.025126263658739</v>
       </c>
       <c r="N5">
-        <v>1.008480088530936</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013923066439916</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037625015586144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +597,40 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9942670968289414</v>
+        <v>1.01112196109837</v>
       </c>
       <c r="D6">
-        <v>1.012786684243758</v>
+        <v>1.028089080749453</v>
       </c>
       <c r="E6">
-        <v>1.000960949618602</v>
-      </c>
-      <c r="F6">
-        <v>0.9852941641099976</v>
+        <v>1.015542611476068</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040849669404395</v>
+        <v>1.048323726632962</v>
       </c>
       <c r="J6">
-        <v>1.013282181234813</v>
+        <v>1.02972260286211</v>
       </c>
       <c r="K6">
-        <v>1.022475334820306</v>
+        <v>1.037607174015502</v>
       </c>
       <c r="L6">
-        <v>1.010785823820712</v>
-      </c>
-      <c r="M6">
-        <v>0.9953057609961654</v>
+        <v>1.025200077575832</v>
       </c>
       <c r="N6">
-        <v>1.008510722670403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013944978177239</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037675973840443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +638,40 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9930706556163708</v>
+        <v>1.010149969798471</v>
       </c>
       <c r="D7">
-        <v>1.011904055115086</v>
+        <v>1.027456499390586</v>
       </c>
       <c r="E7">
-        <v>1.000019801592898</v>
-      </c>
-      <c r="F7">
-        <v>0.9819268578895202</v>
+        <v>1.014791309443835</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040408195420838</v>
+        <v>1.048106234174562</v>
       </c>
       <c r="J7">
-        <v>1.012647134857328</v>
+        <v>1.02929155724649</v>
       </c>
       <c r="K7">
-        <v>1.021857946795889</v>
+        <v>1.037231574026716</v>
       </c>
       <c r="L7">
-        <v>1.010114986247846</v>
-      </c>
-      <c r="M7">
-        <v>0.9922453409648001</v>
+        <v>1.024711492218133</v>
       </c>
       <c r="N7">
-        <v>1.00829921051848</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013803238773214</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037414601726824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +679,40 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9879630191154727</v>
+        <v>1.006013134965219</v>
       </c>
       <c r="D8">
-        <v>1.008128483740035</v>
+        <v>1.024764312790023</v>
       </c>
       <c r="E8">
-        <v>0.9960138410079834</v>
-      </c>
-      <c r="F8">
-        <v>0.9672179587582043</v>
+        <v>1.011604383462381</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038468686108654</v>
+        <v>1.047156554374006</v>
       </c>
       <c r="J8">
-        <v>1.009926245269273</v>
+        <v>1.027448335332512</v>
       </c>
       <c r="K8">
-        <v>1.019199463875523</v>
+        <v>1.035618967140425</v>
       </c>
       <c r="L8">
-        <v>1.007248079464886</v>
-      </c>
-      <c r="M8">
-        <v>0.9788610885136448</v>
+        <v>1.022629427242291</v>
       </c>
       <c r="N8">
-        <v>1.007392830563701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013196776936576</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.036278925012392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +720,40 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.978522055341732</v>
+        <v>0.998444008206177</v>
       </c>
       <c r="D9">
-        <v>1.001115880765439</v>
+        <v>1.019854243427283</v>
       </c>
       <c r="E9">
-        <v>0.9886564516483003</v>
-      </c>
-      <c r="F9">
-        <v>0.938399539021765</v>
+        <v>1.005817338666115</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034652497810199</v>
+        <v>1.045338266154588</v>
       </c>
       <c r="J9">
-        <v>1.004856738379575</v>
+        <v>1.024051832458365</v>
       </c>
       <c r="K9">
-        <v>1.014190879489399</v>
+        <v>1.032633207658974</v>
       </c>
       <c r="L9">
-        <v>1.001936290763827</v>
-      </c>
-      <c r="M9">
-        <v>0.9525779068743631</v>
+        <v>1.018816733463535</v>
       </c>
       <c r="N9">
-        <v>1.005703690390586</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012079036355449</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034164599926078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +761,40 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9718891383877699</v>
+        <v>0.9932058533208905</v>
       </c>
       <c r="D10">
-        <v>0.9961592061916766</v>
+        <v>1.016478143498579</v>
       </c>
       <c r="E10">
-        <v>0.983520986138368</v>
-      </c>
-      <c r="F10">
-        <v>0.9165997083304956</v>
+        <v>1.001845167116869</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03178741076921</v>
+        <v>1.044033407666243</v>
       </c>
       <c r="J10">
-        <v>1.001264235026366</v>
+        <v>1.021691650033829</v>
       </c>
       <c r="K10">
-        <v>1.010598155363951</v>
+        <v>1.030556119992613</v>
       </c>
       <c r="L10">
-        <v>0.9981942880511234</v>
-      </c>
-      <c r="M10">
-        <v>0.9326578504321279</v>
+        <v>1.016181186228496</v>
       </c>
       <c r="N10">
-        <v>1.004506592586958</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011303125341378</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032712833762395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +802,40 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9689249977842769</v>
+        <v>0.9908965848857976</v>
       </c>
       <c r="D11">
-        <v>0.9939346332405975</v>
+        <v>1.015002431214966</v>
       </c>
       <c r="E11">
-        <v>0.9812342827492538</v>
-      </c>
-      <c r="F11">
-        <v>0.9063485995630092</v>
+        <v>1.000103181660252</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030454644063381</v>
+        <v>1.043451933297234</v>
       </c>
       <c r="J11">
-        <v>0.9996502150282992</v>
+        <v>1.020653042407705</v>
       </c>
       <c r="K11">
-        <v>1.008971847194896</v>
+        <v>1.029646863022367</v>
       </c>
       <c r="L11">
-        <v>0.9965189876280974</v>
-      </c>
-      <c r="M11">
-        <v>0.9232827285465757</v>
+        <v>1.015023152388572</v>
       </c>
       <c r="N11">
-        <v>1.003968790826391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010962655135135</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032102911756333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +843,40 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9678089464518482</v>
+        <v>0.9900264974646596</v>
       </c>
       <c r="D12">
-        <v>0.9930953094800892</v>
+        <v>1.014442982522245</v>
       </c>
       <c r="E12">
-        <v>0.9803745524073928</v>
-      </c>
-      <c r="F12">
-        <v>0.9023960698839855</v>
+        <v>0.9994474715462083</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029943931418276</v>
+        <v>1.043228603516935</v>
       </c>
       <c r="J12">
-        <v>0.9990410582727826</v>
+        <v>1.020259034912847</v>
       </c>
       <c r="K12">
-        <v>1.008355998880511</v>
+        <v>1.029298612007418</v>
       </c>
       <c r="L12">
-        <v>0.9958876575532725</v>
-      </c>
-      <c r="M12">
-        <v>0.919666887279061</v>
+        <v>1.01458526479029</v>
       </c>
       <c r="N12">
-        <v>1.003765823903152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010833056021715</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031856685194413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +884,40 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.96804904573235</v>
+        <v>0.9902125859091283</v>
       </c>
       <c r="D13">
-        <v>0.9932759598383922</v>
+        <v>1.014561774278913</v>
       </c>
       <c r="E13">
-        <v>0.980559451880041</v>
-      </c>
-      <c r="F13">
-        <v>0.9032508943219874</v>
+        <v>0.9995875323958134</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030054224461609</v>
+        <v>1.043275932284492</v>
       </c>
       <c r="J13">
-        <v>0.999172176527108</v>
+        <v>1.020342861667062</v>
       </c>
       <c r="K13">
-        <v>1.008488654492506</v>
+        <v>1.029372096197603</v>
       </c>
       <c r="L13">
-        <v>0.9960235040575658</v>
-      </c>
-      <c r="M13">
-        <v>0.9204489407428976</v>
+        <v>1.014678578413706</v>
       </c>
       <c r="N13">
-        <v>1.003809511181956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010860537668644</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031906138169288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +925,40 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9688330592256547</v>
+        <v>0.9908244362614875</v>
       </c>
       <c r="D14">
-        <v>0.9938655283778626</v>
+        <v>1.01495567237242</v>
       </c>
       <c r="E14">
-        <v>0.9811634339980493</v>
-      </c>
-      <c r="F14">
-        <v>0.9060249923965227</v>
+        <v>1.000048732055925</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030412760214226</v>
+        <v>1.043433229606846</v>
       </c>
       <c r="J14">
-        <v>0.9996000642110418</v>
+        <v>1.020620182310318</v>
       </c>
       <c r="K14">
-        <v>1.008921188676606</v>
+        <v>1.029617558945566</v>
       </c>
       <c r="L14">
-        <v>0.996466991464145</v>
-      </c>
-      <c r="M14">
-        <v>0.9229867078473142</v>
+        <v>1.014986697074364</v>
       </c>
       <c r="N14">
-        <v>1.003952080722111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01095180775602</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032081120319993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +966,40 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9693140830651165</v>
+        <v>0.9912021833810076</v>
       </c>
       <c r="D15">
-        <v>0.9942270133579745</v>
+        <v>1.015200607319316</v>
       </c>
       <c r="E15">
-        <v>0.9815341667928121</v>
-      </c>
-      <c r="F15">
-        <v>0.9077142206553124</v>
+        <v>1.000333876704225</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030631527616912</v>
+        <v>1.043531144933104</v>
       </c>
       <c r="J15">
-        <v>0.9998623938646759</v>
+        <v>1.020792262803668</v>
       </c>
       <c r="K15">
-        <v>1.009186088962271</v>
+        <v>1.029771077144885</v>
       </c>
       <c r="L15">
-        <v>0.9967390131062683</v>
-      </c>
-      <c r="M15">
-        <v>0.9245318926843278</v>
+        <v>1.015177606739796</v>
       </c>
       <c r="N15">
-        <v>1.004039488541691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011008622744185</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032195559751534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1007,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9720838212658934</v>
+        <v>0.9933736910042689</v>
       </c>
       <c r="D16">
-        <v>0.9963050934616435</v>
+        <v>1.01659983667126</v>
       </c>
       <c r="E16">
-        <v>0.98367134840842</v>
-      </c>
-      <c r="F16">
-        <v>0.9172611305630529</v>
+        <v>1.001974026881984</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031873775842995</v>
+        <v>1.044084350925959</v>
       </c>
       <c r="J16">
-        <v>1.001370051930584</v>
+        <v>1.021775064532514</v>
       </c>
       <c r="K16">
-        <v>1.010704507630778</v>
+        <v>1.030639890324268</v>
       </c>
       <c r="L16">
-        <v>0.9983042502432056</v>
-      </c>
-      <c r="M16">
-        <v>0.9332626002375434</v>
+        <v>1.016271157659256</v>
       </c>
       <c r="N16">
-        <v>1.004541852305081</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011332016505847</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032813028351891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1048,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9737957763447276</v>
+        <v>0.9947223220048341</v>
       </c>
       <c r="D17">
-        <v>0.9975868553556212</v>
+        <v>1.017470193766895</v>
       </c>
       <c r="E17">
-        <v>0.9849945078533819</v>
-      </c>
-      <c r="F17">
-        <v>0.9230180986458237</v>
+        <v>1.002994815447359</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032627188627299</v>
+        <v>1.044425039408291</v>
       </c>
       <c r="J17">
-        <v>1.002299570098713</v>
+        <v>1.022384835343376</v>
       </c>
       <c r="K17">
-        <v>1.011637328449027</v>
+        <v>1.031178687457297</v>
       </c>
       <c r="L17">
-        <v>0.9992708545432326</v>
-      </c>
-      <c r="M17">
-        <v>0.9385254289973841</v>
+        <v>1.016950537673499</v>
       </c>
       <c r="N17">
-        <v>1.00485158431153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011532692280994</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033196580164387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1089,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9747855418746877</v>
+        <v>0.9954993411028701</v>
       </c>
       <c r="D18">
-        <v>0.9983270282819052</v>
+        <v>1.017967706180915</v>
       </c>
       <c r="E18">
-        <v>0.9857602720726693</v>
-      </c>
-      <c r="F18">
-        <v>0.926299557011676</v>
+        <v>1.003583082222827</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033057892904696</v>
+        <v>1.04461751170623</v>
       </c>
       <c r="J18">
-        <v>1.002836169905131</v>
+        <v>1.022733462840566</v>
       </c>
       <c r="K18">
-        <v>1.012174702017434</v>
+        <v>1.031483337234124</v>
       </c>
       <c r="L18">
-        <v>0.9998294136934149</v>
-      </c>
-      <c r="M18">
-        <v>0.9415244900178001</v>
+        <v>1.017340252302524</v>
       </c>
       <c r="N18">
-        <v>1.005030390842429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011646969725984</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033400295073136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1130,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9751215687583955</v>
+        <v>0.9957672271404165</v>
       </c>
       <c r="D19">
-        <v>0.9985781768615322</v>
+        <v>1.018142738959885</v>
       </c>
       <c r="E19">
-        <v>0.9860203820143046</v>
-      </c>
-      <c r="F19">
-        <v>0.9274060721894301</v>
+        <v>1.003786509311935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033203315790517</v>
+        <v>1.044685841820995</v>
       </c>
       <c r="J19">
-        <v>1.003018214493325</v>
+        <v>1.022855534212166</v>
       </c>
       <c r="K19">
-        <v>1.012356822562007</v>
+        <v>1.031592580225849</v>
       </c>
       <c r="L19">
-        <v>1.000018999600109</v>
-      </c>
-      <c r="M19">
-        <v>0.9425356515980632</v>
+        <v>1.017476006816181</v>
       </c>
       <c r="N19">
-        <v>1.005091052196488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011687350265992</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033483952656911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1171,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9736130168672804</v>
+        <v>0.9945777471578878</v>
       </c>
       <c r="D20">
-        <v>0.9974501139150307</v>
+        <v>1.017376498688054</v>
       </c>
       <c r="E20">
-        <v>0.9848531730426117</v>
-      </c>
-      <c r="F20">
-        <v>0.9224084867859347</v>
+        <v>1.002885257063365</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032547271115196</v>
+        <v>1.044388411925968</v>
       </c>
       <c r="J20">
-        <v>1.002200423581037</v>
+        <v>1.022319299647322</v>
       </c>
       <c r="K20">
-        <v>1.011537948671772</v>
+        <v>1.03112053320012</v>
       </c>
       <c r="L20">
-        <v>0.9991676947017497</v>
-      </c>
-      <c r="M20">
-        <v>0.9379682184440866</v>
+        <v>1.016877561725349</v>
       </c>
       <c r="N20">
-        <v>1.004818546697502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011511087027597</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033154121710883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1212,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9686026127917922</v>
+        <v>0.9906495544707459</v>
       </c>
       <c r="D21">
-        <v>0.9936922860916607</v>
+        <v>1.014847685600292</v>
       </c>
       <c r="E21">
-        <v>0.9809858699432271</v>
-      </c>
-      <c r="F21">
-        <v>0.9052123041673008</v>
+        <v>0.9999175536236959</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030307629845396</v>
+        <v>1.043391167471256</v>
       </c>
       <c r="J21">
-        <v>0.9994743358762517</v>
+        <v>1.020543483558985</v>
       </c>
       <c r="K21">
-        <v>1.00879415360878</v>
+        <v>1.02955312010844</v>
       </c>
       <c r="L21">
-        <v>0.9963366524761659</v>
-      </c>
-      <c r="M21">
-        <v>0.9222432821000088</v>
+        <v>1.014900488145511</v>
       </c>
       <c r="N21">
-        <v>1.003910188556973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010927070167393</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032049127572382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1253,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9653645817045754</v>
+        <v>0.9881283662750748</v>
       </c>
       <c r="D22">
-        <v>0.9912534043410558</v>
+        <v>1.013223470692728</v>
       </c>
       <c r="E22">
-        <v>0.9784938924110678</v>
-      </c>
-      <c r="F22">
-        <v>0.8935457746857748</v>
+        <v>0.9980192665403881</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028807547855001</v>
+        <v>1.042738132050704</v>
       </c>
       <c r="J22">
-        <v>0.997703990495356</v>
+        <v>1.019398607539167</v>
       </c>
       <c r="K22">
-        <v>1.007000147391236</v>
+        <v>1.028537442086141</v>
       </c>
       <c r="L22">
-        <v>0.9945037770340523</v>
-      </c>
-      <c r="M22">
-        <v>0.9115686796515862</v>
+        <v>1.013630064534241</v>
       </c>
       <c r="N22">
-        <v>1.003320342218477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010550010335722</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031317435439159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1294,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9670899148088206</v>
+        <v>0.9894632037961524</v>
       </c>
       <c r="D23">
-        <v>0.9925540274881014</v>
+        <v>1.014077440256049</v>
       </c>
       <c r="E23">
-        <v>0.9798210132827097</v>
-      </c>
-      <c r="F23">
-        <v>0.8998209592201279</v>
+        <v>0.9990227945826728</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029612231280818</v>
+        <v>1.043081357380028</v>
       </c>
       <c r="J23">
-        <v>0.9986481668996053</v>
+        <v>1.020001881971704</v>
       </c>
       <c r="K23">
-        <v>1.007958178660304</v>
+        <v>1.02906860940529</v>
       </c>
       <c r="L23">
-        <v>0.9954807447032439</v>
-      </c>
-      <c r="M23">
-        <v>0.9173108506742634</v>
+        <v>1.014300374000041</v>
       </c>
       <c r="N23">
-        <v>1.003634918016529</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010748081398837</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031683325442567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1335,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9736956250811565</v>
+        <v>0.9946329154158244</v>
       </c>
       <c r="D24">
-        <v>0.9975119244401566</v>
+        <v>1.017403004404777</v>
       </c>
       <c r="E24">
-        <v>0.9849170546763796</v>
-      </c>
-      <c r="F24">
-        <v>0.9226841788459716</v>
+        <v>1.002925743763879</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032583409303095</v>
+        <v>1.044396599100313</v>
       </c>
       <c r="J24">
-        <v>1.002245240783086</v>
+        <v>1.022339143755769</v>
       </c>
       <c r="K24">
-        <v>1.011582874814288</v>
+        <v>1.031131244301298</v>
       </c>
       <c r="L24">
-        <v>0.9992143243447548</v>
-      </c>
-      <c r="M24">
-        <v>0.9382202147496346</v>
+        <v>1.01690167413676</v>
       </c>
       <c r="N24">
-        <v>1.004833480685092</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011516651111603</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033134189648848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1376,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9810190436823422</v>
+        <v>1.000444925531799</v>
       </c>
       <c r="D25">
-        <v>1.002975118829286</v>
+        <v>1.021158892650099</v>
       </c>
       <c r="E25">
-        <v>0.9905966944891781</v>
-      </c>
-      <c r="F25">
-        <v>0.9462508146632247</v>
+        <v>1.007343008397604</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035691125286856</v>
+        <v>1.045833776418415</v>
       </c>
       <c r="J25">
-        <v>1.006202523762656</v>
+        <v>1.024957325429983</v>
       </c>
       <c r="K25">
-        <v>1.015527424806628</v>
+        <v>1.033437389305438</v>
       </c>
       <c r="L25">
-        <v>1.003342759912814</v>
-      </c>
-      <c r="M25">
-        <v>0.9597450597393306</v>
+        <v>1.01982839312308</v>
       </c>
       <c r="N25">
-        <v>1.006152129621634</v>
+        <v>1.012377929755089</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034761893003746</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,40 +439,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004921179445339</v>
+        <v>1.004774820356768</v>
       </c>
       <c r="D2">
-        <v>1.024046933871684</v>
+        <v>1.023509339924693</v>
       </c>
       <c r="E2">
-        <v>1.010765063210296</v>
+        <v>1.010639164600045</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04689529991252</v>
+        <v>1.046654811216722</v>
       </c>
       <c r="J2">
-        <v>1.026955688615121</v>
+        <v>1.026813649289378</v>
       </c>
       <c r="K2">
-        <v>1.035181121417065</v>
+        <v>1.03465058712495</v>
       </c>
       <c r="L2">
-        <v>1.022076433498745</v>
+        <v>1.021952242429165</v>
       </c>
       <c r="N2">
-        <v>1.013033923839814</v>
+        <v>1.014415967652387</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035946346660889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035580015226171</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.0213542409046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -474,40 +489,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008105004560055</v>
+        <v>1.007857868762826</v>
       </c>
       <c r="D3">
-        <v>1.026117050187939</v>
+        <v>1.025439470219767</v>
       </c>
       <c r="E3">
-        <v>1.013212705224305</v>
+        <v>1.012999430391784</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047635814347183</v>
+        <v>1.047316797162998</v>
       </c>
       <c r="J3">
-        <v>1.028377131363126</v>
+        <v>1.028136588607759</v>
       </c>
       <c r="K3">
-        <v>1.036426317930076</v>
+        <v>1.035756875222666</v>
       </c>
       <c r="L3">
-        <v>1.02367927286694</v>
+        <v>1.02346863969978</v>
       </c>
       <c r="N3">
-        <v>1.013501643211992</v>
+        <v>1.014762156285751</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036824139001143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036359311660771</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021547856065289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -515,40 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010131376451964</v>
+        <v>1.009820630585995</v>
       </c>
       <c r="D4">
-        <v>1.027437726786968</v>
+        <v>1.026671427551638</v>
       </c>
       <c r="E4">
-        <v>1.014776121541194</v>
+        <v>1.014507603920733</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048097589502123</v>
+        <v>1.04772871997018</v>
       </c>
       <c r="J4">
-        <v>1.029279423781882</v>
+        <v>1.028976416573171</v>
       </c>
       <c r="K4">
-        <v>1.037215907449181</v>
+        <v>1.036458265750381</v>
       </c>
       <c r="L4">
-        <v>1.024699423726299</v>
+        <v>1.024434032225249</v>
       </c>
       <c r="N4">
-        <v>1.013798636639583</v>
+        <v>1.014982008871217</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037383348326932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036856239428233</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021668152595604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,40 +589,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010977614681456</v>
+        <v>1.010640446100403</v>
       </c>
       <c r="D5">
-        <v>1.027992018577902</v>
+        <v>1.027188814768735</v>
       </c>
       <c r="E5">
-        <v>1.015430594688905</v>
+        <v>1.01513911047504</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048289475089854</v>
+        <v>1.0478998441003</v>
       </c>
       <c r="J5">
-        <v>1.02965682342284</v>
+        <v>1.029327804783645</v>
       </c>
       <c r="K5">
-        <v>1.037547512509656</v>
+        <v>1.036753145692525</v>
       </c>
       <c r="L5">
-        <v>1.025126263658739</v>
+        <v>1.024838082926888</v>
       </c>
       <c r="N5">
-        <v>1.013923066439916</v>
+        <v>1.015074162310032</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037625015586144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037072650313972</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02171851099656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -597,40 +639,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01112196109837</v>
+        <v>1.010780318289969</v>
       </c>
       <c r="D6">
-        <v>1.028089080749453</v>
+        <v>1.027279657395394</v>
       </c>
       <c r="E6">
-        <v>1.015542611476068</v>
+        <v>1.015247237254198</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048323726632962</v>
+        <v>1.047930590015261</v>
       </c>
       <c r="J6">
-        <v>1.02972260286211</v>
+        <v>1.029389176391764</v>
       </c>
       <c r="K6">
-        <v>1.037607174015502</v>
+        <v>1.036806615973781</v>
       </c>
       <c r="L6">
-        <v>1.025200077575832</v>
+        <v>1.024908035656415</v>
       </c>
       <c r="N6">
-        <v>1.013944978177239</v>
+        <v>1.015090434835537</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037675973840443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037120099885904</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021728070534488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -638,40 +689,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010149969798471</v>
+        <v>1.009845302307106</v>
       </c>
       <c r="D7">
-        <v>1.027456499390586</v>
+        <v>1.026694228864133</v>
       </c>
       <c r="E7">
-        <v>1.014791309443835</v>
+        <v>1.014528130987828</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048106234174562</v>
+        <v>1.047740420999488</v>
       </c>
       <c r="J7">
-        <v>1.02929155724649</v>
+        <v>1.028994473831572</v>
       </c>
       <c r="K7">
-        <v>1.037231574026716</v>
+        <v>1.036477912217795</v>
       </c>
       <c r="L7">
-        <v>1.024711492218133</v>
+        <v>1.024451376563053</v>
       </c>
       <c r="N7">
-        <v>1.013803238773214</v>
+        <v>1.015012925268302</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037414601726824</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036892306213014</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021673245533734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -679,40 +739,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006013134965219</v>
+        <v>1.005852338980594</v>
       </c>
       <c r="D8">
-        <v>1.024764312790023</v>
+        <v>1.024193069638246</v>
       </c>
       <c r="E8">
-        <v>1.011604383462381</v>
+        <v>1.011466192673254</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047156554374006</v>
+        <v>1.046899650538497</v>
       </c>
       <c r="J8">
-        <v>1.027448335332512</v>
+        <v>1.027292128723313</v>
       </c>
       <c r="K8">
-        <v>1.035618967140425</v>
+        <v>1.035055006621751</v>
       </c>
       <c r="L8">
-        <v>1.022629427242291</v>
+        <v>1.022493055181242</v>
       </c>
       <c r="N8">
-        <v>1.013196776936576</v>
+        <v>1.014619849382649</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036278925012392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035891225981546</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021428435944721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -720,81 +789,99 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.998444008206177</v>
+        <v>0.9985288705200035</v>
       </c>
       <c r="D9">
-        <v>1.019854243427283</v>
+        <v>1.019619801925639</v>
       </c>
       <c r="E9">
-        <v>1.005817338666115</v>
+        <v>1.005891514137324</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045338266154588</v>
+        <v>1.045270129560491</v>
       </c>
       <c r="J9">
-        <v>1.024051832458365</v>
+        <v>1.024133685330494</v>
       </c>
       <c r="K9">
-        <v>1.032633207658974</v>
+        <v>1.032402384102666</v>
       </c>
       <c r="L9">
-        <v>1.018816733463535</v>
+        <v>1.018889723382541</v>
       </c>
       <c r="N9">
-        <v>1.012079036355449</v>
+        <v>1.013802598179237</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034164599926078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.0340121695411</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02094922172153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9932058533208905</v>
+        <v>0.9934934153123333</v>
       </c>
       <c r="D10">
-        <v>1.016478143498579</v>
+        <v>1.01649958584659</v>
       </c>
       <c r="E10">
-        <v>1.001845167116869</v>
+        <v>1.002094138924615</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044033407666243</v>
+        <v>1.0441116726473</v>
       </c>
       <c r="J10">
-        <v>1.021691650033829</v>
+        <v>1.021967585021822</v>
       </c>
       <c r="K10">
-        <v>1.030556119992613</v>
+        <v>1.030577191271967</v>
       </c>
       <c r="L10">
-        <v>1.016181186228496</v>
+        <v>1.016425685707179</v>
       </c>
       <c r="N10">
-        <v>1.011303125341378</v>
+        <v>1.013352342337689</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032712833762395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03274018675103</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020609119196966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -802,40 +889,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9908965848857976</v>
+        <v>0.991320992444471</v>
       </c>
       <c r="D11">
-        <v>1.015002431214966</v>
+        <v>1.015170017661835</v>
       </c>
       <c r="E11">
-        <v>1.000103181660252</v>
+        <v>1.000470493963265</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043451933297234</v>
+        <v>1.043618784161086</v>
       </c>
       <c r="J11">
-        <v>1.020653042407705</v>
+        <v>1.021059339229101</v>
       </c>
       <c r="K11">
-        <v>1.029646863022367</v>
+        <v>1.029811410042511</v>
       </c>
       <c r="L11">
-        <v>1.015023152388572</v>
+        <v>1.015383542908435</v>
       </c>
       <c r="N11">
-        <v>1.010962655135135</v>
+        <v>1.013342350763592</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032102911756333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032234926352193</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020467550759363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -843,40 +939,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9900264974646596</v>
+        <v>0.9905067717225207</v>
       </c>
       <c r="D12">
-        <v>1.014442982522245</v>
+        <v>1.014668532989968</v>
       </c>
       <c r="E12">
-        <v>0.9994474715462083</v>
+        <v>0.9998631101650989</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043228603516935</v>
+        <v>1.043430932638676</v>
       </c>
       <c r="J12">
-        <v>1.020259034912847</v>
+        <v>1.020718407854843</v>
       </c>
       <c r="K12">
-        <v>1.029298612007418</v>
+        <v>1.029520001363305</v>
       </c>
       <c r="L12">
-        <v>1.01458526479029</v>
+        <v>1.014992933238077</v>
       </c>
       <c r="N12">
-        <v>1.010833056021715</v>
+        <v>1.013354265488789</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031856685194413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032028893877585</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02041284337935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -884,40 +989,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9902125859091283</v>
+        <v>0.9906807208105558</v>
       </c>
       <c r="D13">
-        <v>1.014561774278913</v>
+        <v>1.014774781171708</v>
       </c>
       <c r="E13">
-        <v>0.9995875323958134</v>
+        <v>0.9999926745127093</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043275932284492</v>
+        <v>1.04347057412121</v>
       </c>
       <c r="J13">
-        <v>1.020342861667062</v>
+        <v>1.020790708810515</v>
       </c>
       <c r="K13">
-        <v>1.029372096197603</v>
+        <v>1.029581187674417</v>
       </c>
       <c r="L13">
-        <v>1.014678578413706</v>
+        <v>1.015075980485185</v>
       </c>
       <c r="N13">
-        <v>1.010860537668644</v>
+        <v>1.013350755916776</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031906138169288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032069408556491</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020424217848056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -925,40 +1039,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9908244362614875</v>
+        <v>0.9912533877451903</v>
       </c>
       <c r="D14">
-        <v>1.01495567237242</v>
+        <v>1.015127997623934</v>
       </c>
       <c r="E14">
-        <v>1.000048732055925</v>
+        <v>1.000419976677668</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043433229606846</v>
+        <v>1.043602976326965</v>
       </c>
       <c r="J14">
-        <v>1.020620182310318</v>
+        <v>1.021030799241645</v>
       </c>
       <c r="K14">
-        <v>1.029617558945566</v>
+        <v>1.029786754384388</v>
       </c>
       <c r="L14">
-        <v>1.014986697074364</v>
+        <v>1.015350935666656</v>
       </c>
       <c r="N14">
-        <v>1.01095180775602</v>
+        <v>1.013342901977135</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032081120319993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032216318062138</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020462873744895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -966,40 +1089,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9912021833810076</v>
+        <v>0.991607517433221</v>
       </c>
       <c r="D15">
-        <v>1.015200607319316</v>
+        <v>1.015348243129223</v>
       </c>
       <c r="E15">
-        <v>1.000333876704225</v>
+        <v>1.000684682658567</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043531144933104</v>
+        <v>1.043685815944201</v>
       </c>
       <c r="J15">
-        <v>1.020792262803668</v>
+        <v>1.021180419622608</v>
       </c>
       <c r="K15">
-        <v>1.029771077144885</v>
+        <v>1.029916051470184</v>
       </c>
       <c r="L15">
-        <v>1.015177606739796</v>
+        <v>1.015521842540944</v>
       </c>
       <c r="N15">
-        <v>1.011008622744185</v>
+        <v>1.013340709333158</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032195559751534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032314201045355</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020487405839563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1007,40 +1139,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9933736910042689</v>
+        <v>0.9936523421363637</v>
       </c>
       <c r="D16">
-        <v>1.01659983667126</v>
+        <v>1.016611655395991</v>
       </c>
       <c r="E16">
-        <v>1.001974026881984</v>
+        <v>1.002215251982041</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044084350925959</v>
+        <v>1.044156797720225</v>
       </c>
       <c r="J16">
-        <v>1.021775064532514</v>
+        <v>1.022042490333605</v>
       </c>
       <c r="K16">
-        <v>1.030639890324268</v>
+        <v>1.030651505180236</v>
       </c>
       <c r="L16">
-        <v>1.016271157659256</v>
+        <v>1.016508063719644</v>
       </c>
       <c r="N16">
-        <v>1.011332016505847</v>
+        <v>1.013360626398989</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032813028351891</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032837677782472</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020625077391898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1048,40 +1189,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9947223220048341</v>
+        <v>0.9949316232413642</v>
       </c>
       <c r="D17">
-        <v>1.017470193766895</v>
+        <v>1.01740415625347</v>
       </c>
       <c r="E17">
-        <v>1.002994815447359</v>
+        <v>1.003176075032432</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044425039408291</v>
+        <v>1.044451086724775</v>
       </c>
       <c r="J17">
-        <v>1.022384835343376</v>
+        <v>1.022585974732615</v>
       </c>
       <c r="K17">
-        <v>1.031178687457297</v>
+        <v>1.031113757222437</v>
       </c>
       <c r="L17">
-        <v>1.016950537673499</v>
+        <v>1.017128644381168</v>
       </c>
       <c r="N17">
-        <v>1.011532692280994</v>
+        <v>1.013409160705063</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033196580164387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033167355385235</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020711386566521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1089,40 +1239,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9954993411028701</v>
+        <v>0.9956723266972927</v>
       </c>
       <c r="D18">
-        <v>1.017967706180915</v>
+        <v>1.017859268235749</v>
       </c>
       <c r="E18">
-        <v>1.003583082222827</v>
+        <v>1.003732964204592</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04461751170623</v>
+        <v>1.044618626859572</v>
       </c>
       <c r="J18">
-        <v>1.022733462840566</v>
+        <v>1.022899831212035</v>
       </c>
       <c r="K18">
-        <v>1.031483337234124</v>
+        <v>1.031376687262448</v>
       </c>
       <c r="L18">
-        <v>1.017340252302524</v>
+        <v>1.017487571434073</v>
       </c>
       <c r="N18">
-        <v>1.011646969725984</v>
+        <v>1.013450214538542</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033400295073136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033340436247928</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020759735961471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1130,40 +1289,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9957672271404165</v>
+        <v>0.9959283890819094</v>
       </c>
       <c r="D19">
-        <v>1.018142738959885</v>
+        <v>1.018020236645704</v>
       </c>
       <c r="E19">
-        <v>1.003786509311935</v>
+        <v>1.003926171909737</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044685841820995</v>
+        <v>1.044678737522719</v>
       </c>
       <c r="J19">
-        <v>1.022855534212166</v>
+        <v>1.023010571865175</v>
       </c>
       <c r="K19">
-        <v>1.031592580225849</v>
+        <v>1.031472086143612</v>
       </c>
       <c r="L19">
-        <v>1.017476006816181</v>
+        <v>1.017613295326663</v>
       </c>
       <c r="N19">
-        <v>1.011687350265992</v>
+        <v>1.013467907861544</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033483952656911</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033414927261173</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020777817455622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1171,40 +1339,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9945777471578878</v>
+        <v>0.9947940985552458</v>
       </c>
       <c r="D20">
-        <v>1.017376498688054</v>
+        <v>1.017318532762117</v>
       </c>
       <c r="E20">
-        <v>1.002885257063365</v>
+        <v>1.003072612142273</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044388411925968</v>
+        <v>1.044419237719449</v>
       </c>
       <c r="J20">
-        <v>1.022319299647322</v>
+        <v>1.022527184538274</v>
       </c>
       <c r="K20">
-        <v>1.03112053320012</v>
+        <v>1.031063542201558</v>
       </c>
       <c r="L20">
-        <v>1.016877561725349</v>
+        <v>1.017061647684498</v>
       </c>
       <c r="N20">
-        <v>1.011511087027597</v>
+        <v>1.013402382003035</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033154121710883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033130381015412</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020701964010176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1212,40 +1389,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9906495544707459</v>
+        <v>0.9911056518391677</v>
       </c>
       <c r="D21">
-        <v>1.014847685600292</v>
+        <v>1.015042901833631</v>
       </c>
       <c r="E21">
-        <v>0.9999175536236959</v>
+        <v>1.00031242547031</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043391167471256</v>
+        <v>1.04357622430873</v>
       </c>
       <c r="J21">
-        <v>1.020543483558985</v>
+        <v>1.02098000712071</v>
       </c>
       <c r="K21">
-        <v>1.02955312010844</v>
+        <v>1.029744778304855</v>
       </c>
       <c r="L21">
-        <v>1.014900488145511</v>
+        <v>1.015287881272137</v>
       </c>
       <c r="N21">
-        <v>1.010927070167393</v>
+        <v>1.013411093494369</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032049127572382</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032201519564634</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02045665558841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1253,40 +1439,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9881283662750748</v>
+        <v>0.9887365484763914</v>
       </c>
       <c r="D22">
-        <v>1.013223470692728</v>
+        <v>1.01357960516001</v>
       </c>
       <c r="E22">
-        <v>0.9980192665403881</v>
+        <v>0.9985455347133513</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042738132050704</v>
+        <v>1.043020789885469</v>
       </c>
       <c r="J22">
-        <v>1.019398607539167</v>
+        <v>1.01997919158942</v>
       </c>
       <c r="K22">
-        <v>1.028537442086141</v>
+        <v>1.028886763531976</v>
       </c>
       <c r="L22">
-        <v>1.013630064534241</v>
+        <v>1.014145860014532</v>
       </c>
       <c r="N22">
-        <v>1.010550010335722</v>
+        <v>1.013403809676997</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031317435439159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031580002960788</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02029342199983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1294,40 +1489,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9894632037961524</v>
+        <v>0.9899805815906036</v>
       </c>
       <c r="D23">
-        <v>1.014077440256049</v>
+        <v>1.014341096499661</v>
       </c>
       <c r="E23">
-        <v>0.9990227945826728</v>
+        <v>0.9994705469611523</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043081357380028</v>
+        <v>1.043307088087844</v>
       </c>
       <c r="J23">
-        <v>1.020001881971704</v>
+        <v>1.02049646092949</v>
       </c>
       <c r="K23">
-        <v>1.02906860940529</v>
+        <v>1.029327348504736</v>
       </c>
       <c r="L23">
-        <v>1.014300374000041</v>
+        <v>1.014739444847015</v>
       </c>
       <c r="N23">
-        <v>1.010748081398837</v>
+        <v>1.013364681549263</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031683325442567</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031880904811742</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020376081443669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1335,40 +1539,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9946329154158244</v>
+        <v>0.9948464383436431</v>
       </c>
       <c r="D24">
-        <v>1.017403004404777</v>
+        <v>1.017341681659887</v>
       </c>
       <c r="E24">
-        <v>1.002925743763879</v>
+        <v>1.00311067458568</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044396599100313</v>
+        <v>1.044425465288477</v>
       </c>
       <c r="J24">
-        <v>1.022339143755769</v>
+        <v>1.022544323892327</v>
       </c>
       <c r="K24">
-        <v>1.031131244301298</v>
+        <v>1.031070951554044</v>
       </c>
       <c r="L24">
-        <v>1.01690167413676</v>
+        <v>1.017083382623133</v>
       </c>
       <c r="N24">
-        <v>1.011516651111603</v>
+        <v>1.013402189858299</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033134189648848</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033105442183171</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020701930262065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1376,37 +1589,46 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000444925531799</v>
+        <v>1.000456375448163</v>
       </c>
       <c r="D25">
-        <v>1.021158892650099</v>
+        <v>1.020829680523857</v>
       </c>
       <c r="E25">
-        <v>1.007343008397604</v>
+        <v>1.00735372421237</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045833776418415</v>
+        <v>1.045711612182302</v>
       </c>
       <c r="J25">
-        <v>1.024957325429983</v>
+        <v>1.024968390494198</v>
       </c>
       <c r="K25">
-        <v>1.033437389305438</v>
+        <v>1.033113024291744</v>
       </c>
       <c r="L25">
-        <v>1.01982839312308</v>
+        <v>1.019838945668721</v>
       </c>
       <c r="N25">
-        <v>1.012377929755089</v>
+        <v>1.013989101266295</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034761893003746</v>
+        <v>1.034546126867243</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021080941263047</v>
       </c>
     </row>
   </sheetData>
